--- a/FSIAP/Sprint3/Sprint3_Fisica.xlsx
+++ b/FSIAP/Sprint3/Sprint3_Fisica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\OneDrive\Ambiente de Trabalho\Faculdade\2º Ano\1º Semestre\LAPR3\Project\FSIAP\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="832" documentId="8_{3DF4419B-D001-4F5A-947D-596CCC32D801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E33CC637-3BD2-4E41-A656-C612C48A0443}"/>
+  <xr:revisionPtr revIDLastSave="833" documentId="8_{3DF4419B-D001-4F5A-947D-596CCC32D801}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B2DDF6D-6BAA-44F3-AD9D-2C4E31C6528A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{B0A6D100-53FE-46CC-880C-807D9948D5B4}"/>
   </bookViews>
@@ -27,10 +27,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -299,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +366,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -379,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -415,6 +421,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3284,8 +3291,245 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129153</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>12916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>391308</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>81945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C290D3-52D7-4778-B585-F6BE606508B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="129153" y="18817526"/>
+          <a:ext cx="5673647" cy="5131809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>374543</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>25832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>246959</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>90408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85848CF7-B154-4693-B6EE-0892658AFC9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6393051" y="18830442"/>
+          <a:ext cx="6187976" cy="5127356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219560</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>12916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>24920</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>44193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9574E39D-50C7-4AF3-9652-D7EF3BFB36C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13160645" y="18817526"/>
+          <a:ext cx="5875529" cy="4732430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>77492</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>142068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>429191</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>52789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1909ACF6-11D2-4576-8E02-9817D7B12117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11197526" y="24009458"/>
+          <a:ext cx="7635902" cy="4069433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>645762</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>142067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69616</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>167898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C93FBC-E918-47BC-A7A8-0B2F2F797F13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1252779" y="23828643"/>
+          <a:ext cx="9329854" cy="7620001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3587,7 +3831,7 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="5" spans="15:21">
       <c r="T5" t="s">
@@ -3648,26 +3892,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="14.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="14.4">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="14.4">
       <c r="K4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="14.4">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -3682,7 +3926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="14.4">
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -3691,7 +3935,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="14.4">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -3709,7 +3953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="14.4">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3728,7 +3972,7 @@
         <v>5.6306306306306307E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="14.4">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -3747,8 +3991,8 @@
         <v>8.7047353760445687E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12"/>
-    <row r="13" spans="1:12">
+    <row r="12" spans="1:12" ht="14.4"/>
+    <row r="13" spans="1:12" ht="14.4">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -3760,7 +4004,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="14.4">
       <c r="D14" t="s">
         <v>14</v>
       </c>
@@ -3768,7 +4012,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="14.4">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -3786,7 +4030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="14.4">
       <c r="A17" s="7">
         <v>20</v>
       </c>
@@ -3805,7 +4049,7 @@
         <v>0.22644927536231885</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="14.4">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -3824,7 +4068,7 @@
         <v>0.10146103896103896</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="14.4">
       <c r="A19" s="7">
         <v>22</v>
       </c>
@@ -3843,7 +4087,7 @@
         <v>2.8153153153153154E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="14.4">
       <c r="A20" s="7">
         <v>28</v>
       </c>
@@ -3862,7 +4106,7 @@
         <v>0.38287184513599604</v>
       </c>
     </row>
-    <row r="22" spans="1:8"/>
+    <row r="22" spans="1:8" ht="14.4"/>
     <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>23</v>
@@ -3874,7 +4118,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="14.4">
       <c r="D24" t="s">
         <v>14</v>
       </c>
@@ -3882,7 +4126,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="14.4">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -3900,7 +4144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="14.4">
       <c r="A27" s="7">
         <v>20</v>
       </c>
@@ -3919,7 +4163,7 @@
         <v>8.9095704059709388E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="14.4">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3938,14 +4182,14 @@
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="14.4">
       <c r="A33" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:11"/>
-    <row r="35" spans="1:11">
+    <row r="34" spans="1:11" ht="14.4"/>
+    <row r="35" spans="1:11" ht="14.4">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -3957,7 +4201,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="14.4">
       <c r="D36" t="s">
         <v>14</v>
       </c>
@@ -3966,7 +4210,7 @@
       </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="14.4">
       <c r="A38" s="7" t="s">
         <v>15</v>
       </c>
@@ -3984,7 +4228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="14.4">
       <c r="A39" s="7">
         <v>10</v>
       </c>
@@ -4003,7 +4247,7 @@
         <v>5.6306306306306307E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" ht="14.4">
       <c r="A40" s="7">
         <v>9</v>
       </c>
@@ -4022,8 +4266,8 @@
         <v>9.1911764705882346E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11"/>
-    <row r="43" spans="1:11">
+    <row r="42" spans="1:11" ht="14.4"/>
+    <row r="43" spans="1:11" ht="14.4">
       <c r="A43" s="4" t="s">
         <v>20</v>
       </c>
@@ -4035,7 +4279,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="14.4">
       <c r="D44" t="s">
         <v>14</v>
       </c>
@@ -4043,7 +4287,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="14.4">
       <c r="A46" s="7" t="s">
         <v>15</v>
       </c>
@@ -4061,7 +4305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="14.4">
       <c r="A47" s="7" t="s">
         <v>27</v>
       </c>
@@ -4080,7 +4324,7 @@
         <v>6.6773504273504272E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="14.4">
       <c r="A48" s="7">
         <v>22</v>
       </c>
@@ -4099,7 +4343,7 @@
         <v>2.8153153153153154E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="14.4">
       <c r="A49" s="7">
         <v>29</v>
       </c>
@@ -4118,7 +4362,7 @@
         <v>0.38287184513599604</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" ht="14.4">
       <c r="A52" s="5" t="s">
         <v>23</v>
       </c>
@@ -4129,7 +4373,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="14.4">
       <c r="D53" t="s">
         <v>14</v>
       </c>
@@ -4137,7 +4381,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="14.4">
       <c r="A55" s="7" t="s">
         <v>24</v>
       </c>
@@ -4155,7 +4399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="14.4">
       <c r="A56" s="7">
         <v>29</v>
       </c>
@@ -4174,7 +4418,7 @@
         <v>8.9095704059709388E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" ht="14.4">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -4183,7 +4427,7 @@
         <v>0.71511227763455143</v>
       </c>
     </row>
-    <row r="59" spans="1:8"/>
+    <row r="59" spans="1:8" ht="14.4"/>
     <row r="60" spans="1:8" ht="15" customHeight="1">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
@@ -4194,14 +4438,14 @@
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" ht="14.4">
       <c r="A62" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:8"/>
-    <row r="64" spans="1:8">
+    <row r="63" spans="1:8" ht="14.4"/>
+    <row r="64" spans="1:8" ht="14.4">
       <c r="A64" s="3" t="s">
         <v>12</v>
       </c>
@@ -4213,7 +4457,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" ht="14.4">
       <c r="D65" t="s">
         <v>14</v>
       </c>
@@ -4222,7 +4466,7 @@
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" ht="14.4">
       <c r="A67" s="7" t="s">
         <v>15</v>
       </c>
@@ -4240,7 +4484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" ht="14.4">
       <c r="A68" s="7">
         <v>4</v>
       </c>
@@ -4259,7 +4503,7 @@
         <v>9.1911764705882346E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" ht="14.4">
       <c r="A69" s="7">
         <v>6</v>
       </c>
@@ -4278,7 +4522,7 @@
         <v>0.11531365313653137</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" ht="14.4">
       <c r="A70" s="7">
         <v>5</v>
       </c>
@@ -4297,8 +4541,8 @@
         <v>3.8249694002447987E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:11"/>
-    <row r="72" spans="1:11">
+    <row r="71" spans="1:11" ht="14.4"/>
+    <row r="72" spans="1:11" ht="14.4">
       <c r="A72" s="4" t="s">
         <v>20</v>
       </c>
@@ -4310,7 +4554,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" ht="14.4">
       <c r="D73" t="s">
         <v>14</v>
       </c>
@@ -4318,7 +4562,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" ht="14.4">
       <c r="A75" s="7" t="s">
         <v>15</v>
       </c>
@@ -4336,7 +4580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" ht="14.4">
       <c r="A76" s="7">
         <v>20</v>
       </c>
@@ -4355,7 +4599,7 @@
         <v>0.24481002741872313</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" ht="14.4">
       <c r="A77" s="7" t="s">
         <v>29</v>
       </c>
@@ -4374,7 +4618,7 @@
         <v>3.4543746200187922E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" ht="14.4">
       <c r="A78" s="7">
         <v>17</v>
       </c>
@@ -4393,9 +4637,9 @@
         <v>0.19763533277046791</v>
       </c>
     </row>
-    <row r="79" spans="1:11"/>
-    <row r="80" spans="1:11"/>
-    <row r="81" spans="1:11">
+    <row r="79" spans="1:11" ht="14.4"/>
+    <row r="80" spans="1:11" ht="14.4"/>
+    <row r="81" spans="1:11" ht="14.4">
       <c r="A81" s="5" t="s">
         <v>23</v>
       </c>
@@ -4406,7 +4650,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" ht="14.4">
       <c r="D82" t="s">
         <v>14</v>
       </c>
@@ -4414,8 +4658,8 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="83" spans="1:11"/>
-    <row r="84" spans="1:11">
+    <row r="83" spans="1:11" ht="14.4"/>
+    <row r="84" spans="1:11" ht="14.4">
       <c r="A84" s="7" t="s">
         <v>24</v>
       </c>
@@ -4433,7 +4677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" ht="14.4">
       <c r="A85" s="7">
         <v>27</v>
       </c>
@@ -4452,7 +4696,7 @@
         <v>8.9095704059709388E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" ht="14.4">
       <c r="A87" t="s">
         <v>25</v>
       </c>
@@ -4471,14 +4715,14 @@
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" ht="14.4">
       <c r="A91" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:11"/>
-    <row r="93" spans="1:11">
+    <row r="92" spans="1:11" ht="14.4"/>
+    <row r="93" spans="1:11" ht="14.4">
       <c r="A93" s="3" t="s">
         <v>12</v>
       </c>
@@ -4490,7 +4734,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" ht="14.4">
       <c r="D94" t="s">
         <v>14</v>
       </c>
@@ -4499,7 +4743,7 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" ht="14.4">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
@@ -4517,7 +4761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" ht="14.4">
       <c r="A97" s="7" t="s">
         <v>31</v>
       </c>
@@ -4536,7 +4780,7 @@
         <v>0.16025641025641027</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" ht="14.4">
       <c r="A100" s="4" t="s">
         <v>20</v>
       </c>
@@ -4548,7 +4792,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" ht="14.4">
       <c r="D101" t="s">
         <v>14</v>
       </c>
@@ -4556,7 +4800,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" ht="14.4">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
@@ -4574,7 +4818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" ht="14.4">
       <c r="A104" s="7">
         <v>16</v>
       </c>
@@ -4593,7 +4837,7 @@
         <v>2.6041666666666668E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" ht="14.4">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -4612,7 +4856,7 @@
         <v>3.1629554655870445E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" ht="14.4">
       <c r="A106" s="7" t="s">
         <v>22</v>
       </c>
@@ -4631,7 +4875,7 @@
         <v>0.10146103896103896</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" ht="14.4">
       <c r="A107" s="7" t="s">
         <v>27</v>
       </c>
@@ -4650,8 +4894,8 @@
         <v>6.6773504273504272E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:8"/>
-    <row r="110" spans="1:8">
+    <row r="109" spans="1:8" ht="14.4"/>
+    <row r="110" spans="1:8" ht="14.4">
       <c r="A110" s="5" t="s">
         <v>23</v>
       </c>
@@ -4662,7 +4906,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" ht="14.4">
       <c r="D111" t="s">
         <v>14</v>
       </c>
@@ -4670,7 +4914,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" ht="14.4">
       <c r="A113" s="7" t="s">
         <v>24</v>
       </c>
@@ -4688,7 +4932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" ht="14.4">
       <c r="A114" s="7">
         <v>25</v>
       </c>
@@ -4707,7 +4951,7 @@
         <v>2.2875816993464054E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" ht="14.4">
       <c r="A116" s="6" t="s">
         <v>32</v>
       </c>
@@ -4718,7 +4962,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" ht="14.4">
       <c r="D117" t="s">
         <v>14</v>
       </c>
@@ -4726,7 +4970,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" ht="14.4">
       <c r="A119" s="7" t="s">
         <v>8</v>
       </c>
@@ -4744,7 +4988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" ht="14.4">
       <c r="A120" s="7">
         <v>30</v>
       </c>
@@ -4763,7 +5007,7 @@
         <v>2.2222222222222222E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" ht="14.4">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -4772,7 +5016,7 @@
         <v>0.4112602140291769</v>
       </c>
     </row>
-    <row r="123" spans="1:8"/>
+    <row r="123" spans="1:8" ht="14.4"/>
     <row r="124" spans="1:8" ht="15" customHeight="1">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
@@ -4783,14 +5027,14 @@
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" ht="14.4">
       <c r="A126" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:8"/>
-    <row r="128" spans="1:8">
+    <row r="127" spans="1:8" ht="14.4"/>
+    <row r="128" spans="1:8" ht="14.4">
       <c r="A128" s="3" t="s">
         <v>12</v>
       </c>
@@ -4802,7 +5046,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" ht="14.4">
       <c r="D129" t="s">
         <v>14</v>
       </c>
@@ -4811,7 +5055,7 @@
       </c>
       <c r="K129" s="1"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" ht="14.4">
       <c r="A131" s="7" t="s">
         <v>15</v>
       </c>
@@ -4829,7 +5073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" ht="14.4">
       <c r="A132" s="7">
         <v>14</v>
       </c>
@@ -4848,7 +5092,7 @@
         <v>9.1911764705882346E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" ht="14.4">
       <c r="A133" s="7">
         <v>15</v>
       </c>
@@ -4867,7 +5111,7 @@
         <v>0.12019230769230768</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" ht="14.4">
       <c r="A134" s="7">
         <v>1</v>
       </c>
@@ -4886,7 +5130,7 @@
         <v>0.11704119850187265</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" ht="14.4">
       <c r="A135" s="7">
         <v>2</v>
       </c>
@@ -4905,7 +5149,7 @@
         <v>0.10775862068965518</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" ht="14.4">
       <c r="A136" s="7">
         <v>3</v>
       </c>
@@ -4924,8 +5168,8 @@
         <v>5.4065743944636674E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:11"/>
-    <row r="138" spans="1:11">
+    <row r="137" spans="1:11" ht="14.4"/>
+    <row r="138" spans="1:11" ht="14.4">
       <c r="A138" s="4" t="s">
         <v>20</v>
       </c>
@@ -4937,7 +5181,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" ht="14.4">
       <c r="D139" t="s">
         <v>14</v>
       </c>
@@ -4945,7 +5189,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" ht="14.4">
       <c r="A141" s="7" t="s">
         <v>15</v>
       </c>
@@ -4963,7 +5207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" ht="14.4">
       <c r="A142" s="7">
         <v>16</v>
       </c>
@@ -4982,7 +5226,7 @@
         <v>2.8153153153153157E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" ht="14.4">
       <c r="A143" s="7">
         <v>17</v>
       </c>
@@ -5001,7 +5245,7 @@
         <v>0.19763533277046791</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" ht="14.4">
       <c r="A145" s="5" t="s">
         <v>23</v>
       </c>
@@ -5012,7 +5256,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" ht="14.4">
       <c r="D146" t="s">
         <v>14</v>
       </c>
@@ -5020,7 +5264,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" ht="14.4">
       <c r="A148" s="7" t="s">
         <v>24</v>
       </c>
@@ -5038,7 +5282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" ht="14.4">
       <c r="A149" s="7">
         <v>26</v>
       </c>
@@ -5057,7 +5301,7 @@
         <v>5.1214515657009074E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" ht="14.4">
       <c r="A151" s="6" t="s">
         <v>32</v>
       </c>
@@ -5068,7 +5312,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" ht="14.4">
       <c r="D152" t="s">
         <v>14</v>
       </c>
@@ -5076,7 +5320,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" ht="14.4">
       <c r="A154" s="7" t="s">
         <v>8</v>
       </c>
@@ -5094,7 +5338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" ht="14.4">
       <c r="A155" s="7">
         <v>32</v>
       </c>
@@ -5113,7 +5357,7 @@
         <v>2.2222222222222222E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" ht="14.4">
       <c r="A157" s="9" t="s">
         <v>35</v>
       </c>
@@ -5139,7 +5383,7 @@
       <c r="R157" s="9"/>
       <c r="S157" s="9"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" ht="14.4">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -5202,7 +5446,7 @@
       <c r="R160" s="9"/>
       <c r="S160" s="9"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" ht="14.4">
       <c r="A161" s="11" t="s">
         <v>36</v>
       </c>
@@ -5233,7 +5477,7 @@
       <c r="R161" s="9"/>
       <c r="S161" s="9"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" ht="14.4">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -5262,7 +5506,7 @@
       <c r="R162" s="9"/>
       <c r="S162" s="9"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" ht="14.4">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -5291,7 +5535,7 @@
       <c r="R163" s="9"/>
       <c r="S163" s="9"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" ht="14.4">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -5323,7 +5567,7 @@
       <c r="R164" s="9"/>
       <c r="S164" s="9"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" ht="14.4">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -5348,7 +5592,7 @@
       <c r="R165" s="9"/>
       <c r="S165" s="9"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" ht="14.4">
       <c r="A166" s="14" t="s">
         <v>49</v>
       </c>
@@ -5379,7 +5623,7 @@
       <c r="R166" s="9"/>
       <c r="S166" s="9"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" ht="14.4">
       <c r="A167" s="14"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -5426,7 +5670,7 @@
       <c r="R168" s="9"/>
       <c r="S168" s="9"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" ht="14.4">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -5468,7 +5712,7 @@
       <c r="R170" s="9"/>
       <c r="S170" s="9"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" ht="14.4">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -5510,7 +5754,7 @@
       <c r="R172" s="9"/>
       <c r="S172" s="9"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" ht="14.4">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -5552,7 +5796,7 @@
       <c r="R174" s="9"/>
       <c r="S174" s="9"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" ht="14.4">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -5594,7 +5838,7 @@
       <c r="R176" s="9"/>
       <c r="S176" s="9"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" ht="14.4">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -5644,20 +5888,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB83F66-C722-47B7-BE81-88EF87869F6A}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:AN237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="59" workbookViewId="0">
+      <selection activeCell="S164" sqref="S164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5988,7 +6232,7 @@
         <v>-5</v>
       </c>
       <c r="E28">
-        <f>(C28-D28)/B28</f>
+        <f t="shared" ref="E28:E33" si="0">(C28-D28)/B28</f>
         <v>444</v>
       </c>
       <c r="F28">
@@ -6011,7 +6255,7 @@
         <v>-5</v>
       </c>
       <c r="E29">
-        <f>(C29-D29)/B29</f>
+        <f t="shared" si="0"/>
         <v>287.2</v>
       </c>
       <c r="F29">
@@ -6034,7 +6278,7 @@
         <v>-5</v>
       </c>
       <c r="E30">
-        <f>(C30-D30)/B30</f>
+        <f t="shared" si="0"/>
         <v>52.991999999999997</v>
       </c>
       <c r="F30">
@@ -6057,7 +6301,7 @@
         <v>-5</v>
       </c>
       <c r="E31">
-        <f>(C31-D31)/B31</f>
+        <f t="shared" si="0"/>
         <v>197.12</v>
       </c>
       <c r="F31">
@@ -6080,7 +6324,7 @@
         <v>-5</v>
       </c>
       <c r="E32">
-        <f>(C32-D32)/B32</f>
+        <f t="shared" si="0"/>
         <v>177.6</v>
       </c>
       <c r="F32">
@@ -6103,7 +6347,7 @@
         <v>-5</v>
       </c>
       <c r="E33">
-        <f>(C33-D33)/B33</f>
+        <f t="shared" si="0"/>
         <v>52.236800000000002</v>
       </c>
       <c r="F33">
@@ -6397,7 +6641,7 @@
         <v>7</v>
       </c>
       <c r="E63">
-        <f>(C63-D63)/B63</f>
+        <f t="shared" ref="E63:E68" si="1">(C63-D63)/B63</f>
         <v>141.44</v>
       </c>
       <c r="F63">
@@ -6420,7 +6664,7 @@
         <v>7</v>
       </c>
       <c r="E64">
-        <f>(C64-D64)/B64</f>
+        <f t="shared" si="1"/>
         <v>112.73599999999999</v>
       </c>
       <c r="F64">
@@ -6443,7 +6687,7 @@
         <v>7</v>
       </c>
       <c r="E65">
-        <f>(C65-D65)/B65</f>
+        <f t="shared" si="1"/>
         <v>339.87199999999996</v>
       </c>
       <c r="F65">
@@ -6466,7 +6710,7 @@
         <v>7</v>
       </c>
       <c r="E66">
-        <f>(C66-D66)/B66</f>
+        <f t="shared" si="1"/>
         <v>-49.017599999999987</v>
       </c>
       <c r="F66">
@@ -6489,7 +6733,7 @@
         <v>7</v>
       </c>
       <c r="E67">
-        <f>(C67-D67)/B67</f>
+        <f t="shared" si="1"/>
         <v>231.59039999999996</v>
       </c>
       <c r="F67">
@@ -6512,7 +6756,7 @@
         <v>7</v>
       </c>
       <c r="E68">
-        <f>(C68-D68)/B68</f>
+        <f t="shared" si="1"/>
         <v>40.478591999999999</v>
       </c>
       <c r="F68">
@@ -6625,7 +6869,7 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <f>(C83-D83)/B83</f>
+        <f t="shared" ref="E83:E89" si="2">(C83-D83)/B83</f>
         <v>54.400000000000006</v>
       </c>
       <c r="F83">
@@ -6648,7 +6892,7 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <f>(C84-D84)/B84</f>
+        <f t="shared" si="2"/>
         <v>41.6</v>
       </c>
       <c r="F84">
@@ -6671,7 +6915,7 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <f>(C85-D85)/B85</f>
+        <f t="shared" si="2"/>
         <v>42.72</v>
       </c>
       <c r="F85">
@@ -6694,7 +6938,7 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <f>(C86-D86)/B86</f>
+        <f t="shared" si="2"/>
         <v>46.4</v>
       </c>
       <c r="F86">
@@ -6717,7 +6961,7 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <f>(C87-D87)/B87</f>
+        <f t="shared" si="2"/>
         <v>92.48</v>
       </c>
       <c r="F87">
@@ -6740,7 +6984,7 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <f>(C88-D88)/B88</f>
+        <f t="shared" si="2"/>
         <v>-710.39999999999986</v>
       </c>
       <c r="F88">
@@ -6763,7 +7007,7 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <f>(C89-D89)/B89</f>
+        <f t="shared" si="2"/>
         <v>-40.478591999999999</v>
       </c>
       <c r="F89">
@@ -6834,7 +7078,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:40">
       <c r="A97" s="7">
         <v>32</v>
       </c>
@@ -6857,7 +7101,7 @@
         <v>8100000</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:40">
       <c r="D100" s="21" t="s">
         <v>67</v>
       </c>
@@ -6867,7 +7111,7 @@
         <v>6747659.9259428577</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:40">
       <c r="B102" s="24" t="s">
         <v>68</v>
       </c>
@@ -6879,7 +7123,5636 @@
         <v>21964774.628571432</v>
       </c>
     </row>
+    <row r="104" spans="1:40">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="27"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="27"/>
+      <c r="Q104" s="27"/>
+      <c r="R104" s="27"/>
+      <c r="S104" s="27"/>
+      <c r="T104" s="27"/>
+      <c r="U104" s="27"/>
+      <c r="V104" s="27"/>
+      <c r="W104" s="27"/>
+      <c r="X104" s="27"/>
+      <c r="Y104" s="27"/>
+      <c r="Z104" s="27"/>
+      <c r="AA104" s="27"/>
+      <c r="AB104" s="27"/>
+      <c r="AC104" s="27"/>
+      <c r="AD104" s="27"/>
+      <c r="AE104" s="27"/>
+      <c r="AF104" s="27"/>
+      <c r="AG104" s="27"/>
+      <c r="AH104" s="27"/>
+      <c r="AI104" s="27"/>
+      <c r="AJ104" s="27"/>
+      <c r="AK104" s="27"/>
+      <c r="AL104" s="27"/>
+      <c r="AM104" s="27"/>
+      <c r="AN104" s="27"/>
+    </row>
+    <row r="105" spans="1:40">
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="27"/>
+      <c r="M105" s="27"/>
+      <c r="N105" s="27"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="27"/>
+      <c r="Q105" s="27"/>
+      <c r="R105" s="27"/>
+      <c r="S105" s="27"/>
+      <c r="T105" s="27"/>
+      <c r="U105" s="27"/>
+      <c r="V105" s="27"/>
+      <c r="W105" s="27"/>
+      <c r="X105" s="27"/>
+      <c r="Y105" s="27"/>
+      <c r="Z105" s="27"/>
+      <c r="AA105" s="27"/>
+      <c r="AB105" s="27"/>
+      <c r="AC105" s="27"/>
+      <c r="AD105" s="27"/>
+      <c r="AE105" s="27"/>
+      <c r="AF105" s="27"/>
+      <c r="AG105" s="27"/>
+      <c r="AH105" s="27"/>
+      <c r="AI105" s="27"/>
+      <c r="AJ105" s="27"/>
+      <c r="AK105" s="27"/>
+      <c r="AL105" s="27"/>
+      <c r="AM105" s="27"/>
+      <c r="AN105" s="27"/>
+    </row>
+    <row r="106" spans="1:40">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="27"/>
+      <c r="Q106" s="27"/>
+      <c r="R106" s="27"/>
+      <c r="S106" s="27"/>
+      <c r="T106" s="27"/>
+      <c r="U106" s="27"/>
+      <c r="V106" s="27"/>
+      <c r="W106" s="27"/>
+      <c r="X106" s="27"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="27"/>
+      <c r="AA106" s="27"/>
+      <c r="AB106" s="27"/>
+      <c r="AC106" s="27"/>
+      <c r="AD106" s="27"/>
+      <c r="AE106" s="27"/>
+      <c r="AF106" s="27"/>
+      <c r="AG106" s="27"/>
+      <c r="AH106" s="27"/>
+      <c r="AI106" s="27"/>
+      <c r="AJ106" s="27"/>
+      <c r="AK106" s="27"/>
+      <c r="AL106" s="27"/>
+      <c r="AM106" s="27"/>
+      <c r="AN106" s="27"/>
+    </row>
+    <row r="107" spans="1:40">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="27"/>
+      <c r="Q107" s="27"/>
+      <c r="R107" s="27"/>
+      <c r="S107" s="27"/>
+      <c r="T107" s="27"/>
+      <c r="U107" s="27"/>
+      <c r="V107" s="27"/>
+      <c r="W107" s="27"/>
+      <c r="X107" s="27"/>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="27"/>
+      <c r="AC107" s="27"/>
+      <c r="AD107" s="27"/>
+      <c r="AE107" s="27"/>
+      <c r="AF107" s="27"/>
+      <c r="AG107" s="27"/>
+      <c r="AH107" s="27"/>
+      <c r="AI107" s="27"/>
+      <c r="AJ107" s="27"/>
+      <c r="AK107" s="27"/>
+      <c r="AL107" s="27"/>
+      <c r="AM107" s="27"/>
+      <c r="AN107" s="27"/>
+    </row>
+    <row r="108" spans="1:40">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="27"/>
+      <c r="R108" s="27"/>
+      <c r="S108" s="27"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="27"/>
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="27"/>
+      <c r="AA108" s="27"/>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="27"/>
+      <c r="AE108" s="27"/>
+      <c r="AF108" s="27"/>
+      <c r="AG108" s="27"/>
+      <c r="AH108" s="27"/>
+      <c r="AI108" s="27"/>
+      <c r="AJ108" s="27"/>
+      <c r="AK108" s="27"/>
+      <c r="AL108" s="27"/>
+      <c r="AM108" s="27"/>
+      <c r="AN108" s="27"/>
+    </row>
+    <row r="109" spans="1:40">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="27"/>
+      <c r="N109" s="27"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="27"/>
+      <c r="Q109" s="27"/>
+      <c r="R109" s="27"/>
+      <c r="S109" s="27"/>
+      <c r="T109" s="27"/>
+      <c r="U109" s="27"/>
+      <c r="V109" s="27"/>
+      <c r="W109" s="27"/>
+      <c r="X109" s="27"/>
+      <c r="Y109" s="27"/>
+      <c r="Z109" s="27"/>
+      <c r="AA109" s="27"/>
+      <c r="AB109" s="27"/>
+      <c r="AC109" s="27"/>
+      <c r="AD109" s="27"/>
+      <c r="AE109" s="27"/>
+      <c r="AF109" s="27"/>
+      <c r="AG109" s="27"/>
+      <c r="AH109" s="27"/>
+      <c r="AI109" s="27"/>
+      <c r="AJ109" s="27"/>
+      <c r="AK109" s="27"/>
+      <c r="AL109" s="27"/>
+      <c r="AM109" s="27"/>
+      <c r="AN109" s="27"/>
+    </row>
+    <row r="110" spans="1:40">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="27"/>
+      <c r="N110" s="27"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="27"/>
+      <c r="Q110" s="27"/>
+      <c r="R110" s="27"/>
+      <c r="S110" s="27"/>
+      <c r="T110" s="27"/>
+      <c r="U110" s="27"/>
+      <c r="V110" s="27"/>
+      <c r="W110" s="27"/>
+      <c r="X110" s="27"/>
+      <c r="Y110" s="27"/>
+      <c r="Z110" s="27"/>
+      <c r="AA110" s="27"/>
+      <c r="AB110" s="27"/>
+      <c r="AC110" s="27"/>
+      <c r="AD110" s="27"/>
+      <c r="AE110" s="27"/>
+      <c r="AF110" s="27"/>
+      <c r="AG110" s="27"/>
+      <c r="AH110" s="27"/>
+      <c r="AI110" s="27"/>
+      <c r="AJ110" s="27"/>
+      <c r="AK110" s="27"/>
+      <c r="AL110" s="27"/>
+      <c r="AM110" s="27"/>
+      <c r="AN110" s="27"/>
+    </row>
+    <row r="111" spans="1:40">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="27"/>
+      <c r="M111" s="27"/>
+      <c r="N111" s="27"/>
+      <c r="O111" s="27"/>
+      <c r="P111" s="27"/>
+      <c r="Q111" s="27"/>
+      <c r="R111" s="27"/>
+      <c r="S111" s="27"/>
+      <c r="T111" s="27"/>
+      <c r="U111" s="27"/>
+      <c r="V111" s="27"/>
+      <c r="W111" s="27"/>
+      <c r="X111" s="27"/>
+      <c r="Y111" s="27"/>
+      <c r="Z111" s="27"/>
+      <c r="AA111" s="27"/>
+      <c r="AB111" s="27"/>
+      <c r="AC111" s="27"/>
+      <c r="AD111" s="27"/>
+      <c r="AE111" s="27"/>
+      <c r="AF111" s="27"/>
+      <c r="AG111" s="27"/>
+      <c r="AH111" s="27"/>
+      <c r="AI111" s="27"/>
+      <c r="AJ111" s="27"/>
+      <c r="AK111" s="27"/>
+      <c r="AL111" s="27"/>
+      <c r="AM111" s="27"/>
+      <c r="AN111" s="27"/>
+    </row>
+    <row r="112" spans="1:40">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="27"/>
+      <c r="M112" s="27"/>
+      <c r="N112" s="27"/>
+      <c r="O112" s="27"/>
+      <c r="P112" s="27"/>
+      <c r="Q112" s="27"/>
+      <c r="R112" s="27"/>
+      <c r="S112" s="27"/>
+      <c r="T112" s="27"/>
+      <c r="U112" s="27"/>
+      <c r="V112" s="27"/>
+      <c r="W112" s="27"/>
+      <c r="X112" s="27"/>
+      <c r="Y112" s="27"/>
+      <c r="Z112" s="27"/>
+      <c r="AA112" s="27"/>
+      <c r="AB112" s="27"/>
+      <c r="AC112" s="27"/>
+      <c r="AD112" s="27"/>
+      <c r="AE112" s="27"/>
+      <c r="AF112" s="27"/>
+      <c r="AG112" s="27"/>
+      <c r="AH112" s="27"/>
+      <c r="AI112" s="27"/>
+      <c r="AJ112" s="27"/>
+      <c r="AK112" s="27"/>
+      <c r="AL112" s="27"/>
+      <c r="AM112" s="27"/>
+      <c r="AN112" s="27"/>
+    </row>
+    <row r="113" spans="1:40">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
+      <c r="M113" s="27"/>
+      <c r="N113" s="27"/>
+      <c r="O113" s="27"/>
+      <c r="P113" s="27"/>
+      <c r="Q113" s="27"/>
+      <c r="R113" s="27"/>
+      <c r="S113" s="27"/>
+      <c r="T113" s="27"/>
+      <c r="U113" s="27"/>
+      <c r="V113" s="27"/>
+      <c r="W113" s="27"/>
+      <c r="X113" s="27"/>
+      <c r="Y113" s="27"/>
+      <c r="Z113" s="27"/>
+      <c r="AA113" s="27"/>
+      <c r="AB113" s="27"/>
+      <c r="AC113" s="27"/>
+      <c r="AD113" s="27"/>
+      <c r="AE113" s="27"/>
+      <c r="AF113" s="27"/>
+      <c r="AG113" s="27"/>
+      <c r="AH113" s="27"/>
+      <c r="AI113" s="27"/>
+      <c r="AJ113" s="27"/>
+      <c r="AK113" s="27"/>
+      <c r="AL113" s="27"/>
+      <c r="AM113" s="27"/>
+      <c r="AN113" s="27"/>
+    </row>
+    <row r="114" spans="1:40">
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="27"/>
+      <c r="M114" s="27"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="27"/>
+      <c r="Q114" s="27"/>
+      <c r="R114" s="27"/>
+      <c r="S114" s="27"/>
+      <c r="T114" s="27"/>
+      <c r="U114" s="27"/>
+      <c r="V114" s="27"/>
+      <c r="W114" s="27"/>
+      <c r="X114" s="27"/>
+      <c r="Y114" s="27"/>
+      <c r="Z114" s="27"/>
+      <c r="AA114" s="27"/>
+      <c r="AB114" s="27"/>
+      <c r="AC114" s="27"/>
+      <c r="AD114" s="27"/>
+      <c r="AE114" s="27"/>
+      <c r="AF114" s="27"/>
+      <c r="AG114" s="27"/>
+      <c r="AH114" s="27"/>
+      <c r="AI114" s="27"/>
+      <c r="AJ114" s="27"/>
+      <c r="AK114" s="27"/>
+      <c r="AL114" s="27"/>
+      <c r="AM114" s="27"/>
+      <c r="AN114" s="27"/>
+    </row>
+    <row r="115" spans="1:40">
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="27"/>
+      <c r="M115" s="27"/>
+      <c r="N115" s="27"/>
+      <c r="O115" s="27"/>
+      <c r="P115" s="27"/>
+      <c r="Q115" s="27"/>
+      <c r="R115" s="27"/>
+      <c r="S115" s="27"/>
+      <c r="T115" s="27"/>
+      <c r="U115" s="27"/>
+      <c r="V115" s="27"/>
+      <c r="W115" s="27"/>
+      <c r="X115" s="27"/>
+      <c r="Y115" s="27"/>
+      <c r="Z115" s="27"/>
+      <c r="AA115" s="27"/>
+      <c r="AB115" s="27"/>
+      <c r="AC115" s="27"/>
+      <c r="AD115" s="27"/>
+      <c r="AE115" s="27"/>
+      <c r="AF115" s="27"/>
+      <c r="AG115" s="27"/>
+      <c r="AH115" s="27"/>
+      <c r="AI115" s="27"/>
+      <c r="AJ115" s="27"/>
+      <c r="AK115" s="27"/>
+      <c r="AL115" s="27"/>
+      <c r="AM115" s="27"/>
+      <c r="AN115" s="27"/>
+    </row>
+    <row r="116" spans="1:40">
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="27"/>
+      <c r="K116" s="27"/>
+      <c r="L116" s="27"/>
+      <c r="M116" s="27"/>
+      <c r="N116" s="27"/>
+      <c r="O116" s="27"/>
+      <c r="P116" s="27"/>
+      <c r="Q116" s="27"/>
+      <c r="R116" s="27"/>
+      <c r="S116" s="27"/>
+      <c r="T116" s="27"/>
+      <c r="U116" s="27"/>
+      <c r="V116" s="27"/>
+      <c r="W116" s="27"/>
+      <c r="X116" s="27"/>
+      <c r="Y116" s="27"/>
+      <c r="Z116" s="27"/>
+      <c r="AA116" s="27"/>
+      <c r="AB116" s="27"/>
+      <c r="AC116" s="27"/>
+      <c r="AD116" s="27"/>
+      <c r="AE116" s="27"/>
+      <c r="AF116" s="27"/>
+      <c r="AG116" s="27"/>
+      <c r="AH116" s="27"/>
+      <c r="AI116" s="27"/>
+      <c r="AJ116" s="27"/>
+      <c r="AK116" s="27"/>
+      <c r="AL116" s="27"/>
+      <c r="AM116" s="27"/>
+      <c r="AN116" s="27"/>
+    </row>
+    <row r="117" spans="1:40">
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="27"/>
+      <c r="Q117" s="27"/>
+      <c r="R117" s="27"/>
+      <c r="S117" s="27"/>
+      <c r="T117" s="27"/>
+      <c r="U117" s="27"/>
+      <c r="V117" s="27"/>
+      <c r="W117" s="27"/>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27"/>
+      <c r="AA117" s="27"/>
+      <c r="AB117" s="27"/>
+      <c r="AC117" s="27"/>
+      <c r="AD117" s="27"/>
+      <c r="AE117" s="27"/>
+      <c r="AF117" s="27"/>
+      <c r="AG117" s="27"/>
+      <c r="AH117" s="27"/>
+      <c r="AI117" s="27"/>
+      <c r="AJ117" s="27"/>
+      <c r="AK117" s="27"/>
+      <c r="AL117" s="27"/>
+      <c r="AM117" s="27"/>
+      <c r="AN117" s="27"/>
+    </row>
+    <row r="118" spans="1:40">
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="27"/>
+      <c r="O118" s="27"/>
+      <c r="P118" s="27"/>
+      <c r="Q118" s="27"/>
+      <c r="R118" s="27"/>
+      <c r="S118" s="27"/>
+      <c r="T118" s="27"/>
+      <c r="U118" s="27"/>
+      <c r="V118" s="27"/>
+      <c r="W118" s="27"/>
+      <c r="X118" s="27"/>
+      <c r="Y118" s="27"/>
+      <c r="Z118" s="27"/>
+      <c r="AA118" s="27"/>
+      <c r="AB118" s="27"/>
+      <c r="AC118" s="27"/>
+      <c r="AD118" s="27"/>
+      <c r="AE118" s="27"/>
+      <c r="AF118" s="27"/>
+      <c r="AG118" s="27"/>
+      <c r="AH118" s="27"/>
+      <c r="AI118" s="27"/>
+      <c r="AJ118" s="27"/>
+      <c r="AK118" s="27"/>
+      <c r="AL118" s="27"/>
+      <c r="AM118" s="27"/>
+      <c r="AN118" s="27"/>
+    </row>
+    <row r="119" spans="1:40">
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="27"/>
+      <c r="Q119" s="27"/>
+      <c r="R119" s="27"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="27"/>
+      <c r="U119" s="27"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+      <c r="AA119" s="27"/>
+      <c r="AB119" s="27"/>
+      <c r="AC119" s="27"/>
+      <c r="AD119" s="27"/>
+      <c r="AE119" s="27"/>
+      <c r="AF119" s="27"/>
+      <c r="AG119" s="27"/>
+      <c r="AH119" s="27"/>
+      <c r="AI119" s="27"/>
+      <c r="AJ119" s="27"/>
+      <c r="AK119" s="27"/>
+      <c r="AL119" s="27"/>
+      <c r="AM119" s="27"/>
+      <c r="AN119" s="27"/>
+    </row>
+    <row r="120" spans="1:40">
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="27"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="27"/>
+      <c r="M120" s="27"/>
+      <c r="N120" s="27"/>
+      <c r="O120" s="27"/>
+      <c r="P120" s="27"/>
+      <c r="Q120" s="27"/>
+      <c r="R120" s="27"/>
+      <c r="S120" s="27"/>
+      <c r="T120" s="27"/>
+      <c r="U120" s="27"/>
+      <c r="V120" s="27"/>
+      <c r="W120" s="27"/>
+      <c r="X120" s="27"/>
+      <c r="Y120" s="27"/>
+      <c r="Z120" s="27"/>
+      <c r="AA120" s="27"/>
+      <c r="AB120" s="27"/>
+      <c r="AC120" s="27"/>
+      <c r="AD120" s="27"/>
+      <c r="AE120" s="27"/>
+      <c r="AF120" s="27"/>
+      <c r="AG120" s="27"/>
+      <c r="AH120" s="27"/>
+      <c r="AI120" s="27"/>
+      <c r="AJ120" s="27"/>
+      <c r="AK120" s="27"/>
+      <c r="AL120" s="27"/>
+      <c r="AM120" s="27"/>
+      <c r="AN120" s="27"/>
+    </row>
+    <row r="121" spans="1:40">
+      <c r="A121" s="27"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="27"/>
+      <c r="M121" s="27"/>
+      <c r="N121" s="27"/>
+      <c r="O121" s="27"/>
+      <c r="P121" s="27"/>
+      <c r="Q121" s="27"/>
+      <c r="R121" s="27"/>
+      <c r="S121" s="27"/>
+      <c r="T121" s="27"/>
+      <c r="U121" s="27"/>
+      <c r="V121" s="27"/>
+      <c r="W121" s="27"/>
+      <c r="X121" s="27"/>
+      <c r="Y121" s="27"/>
+      <c r="Z121" s="27"/>
+      <c r="AA121" s="27"/>
+      <c r="AB121" s="27"/>
+      <c r="AC121" s="27"/>
+      <c r="AD121" s="27"/>
+      <c r="AE121" s="27"/>
+      <c r="AF121" s="27"/>
+      <c r="AG121" s="27"/>
+      <c r="AH121" s="27"/>
+      <c r="AI121" s="27"/>
+      <c r="AJ121" s="27"/>
+      <c r="AK121" s="27"/>
+      <c r="AL121" s="27"/>
+      <c r="AM121" s="27"/>
+      <c r="AN121" s="27"/>
+    </row>
+    <row r="122" spans="1:40">
+      <c r="A122" s="27"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="27"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="27"/>
+      <c r="N122" s="27"/>
+      <c r="O122" s="27"/>
+      <c r="P122" s="27"/>
+      <c r="Q122" s="27"/>
+      <c r="R122" s="27"/>
+      <c r="S122" s="27"/>
+      <c r="T122" s="27"/>
+      <c r="U122" s="27"/>
+      <c r="V122" s="27"/>
+      <c r="W122" s="27"/>
+      <c r="X122" s="27"/>
+      <c r="Y122" s="27"/>
+      <c r="Z122" s="27"/>
+      <c r="AA122" s="27"/>
+      <c r="AB122" s="27"/>
+      <c r="AC122" s="27"/>
+      <c r="AD122" s="27"/>
+      <c r="AE122" s="27"/>
+      <c r="AF122" s="27"/>
+      <c r="AG122" s="27"/>
+      <c r="AH122" s="27"/>
+      <c r="AI122" s="27"/>
+      <c r="AJ122" s="27"/>
+      <c r="AK122" s="27"/>
+      <c r="AL122" s="27"/>
+      <c r="AM122" s="27"/>
+      <c r="AN122" s="27"/>
+    </row>
+    <row r="123" spans="1:40">
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="27"/>
+      <c r="N123" s="27"/>
+      <c r="O123" s="27"/>
+      <c r="P123" s="27"/>
+      <c r="Q123" s="27"/>
+      <c r="R123" s="27"/>
+      <c r="S123" s="27"/>
+      <c r="T123" s="27"/>
+      <c r="U123" s="27"/>
+      <c r="V123" s="27"/>
+      <c r="W123" s="27"/>
+      <c r="X123" s="27"/>
+      <c r="Y123" s="27"/>
+      <c r="Z123" s="27"/>
+      <c r="AA123" s="27"/>
+      <c r="AB123" s="27"/>
+      <c r="AC123" s="27"/>
+      <c r="AD123" s="27"/>
+      <c r="AE123" s="27"/>
+      <c r="AF123" s="27"/>
+      <c r="AG123" s="27"/>
+      <c r="AH123" s="27"/>
+      <c r="AI123" s="27"/>
+      <c r="AJ123" s="27"/>
+      <c r="AK123" s="27"/>
+      <c r="AL123" s="27"/>
+      <c r="AM123" s="27"/>
+      <c r="AN123" s="27"/>
+    </row>
+    <row r="124" spans="1:40">
+      <c r="A124" s="27"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="27"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="27"/>
+      <c r="N124" s="27"/>
+      <c r="O124" s="27"/>
+      <c r="P124" s="27"/>
+      <c r="Q124" s="27"/>
+      <c r="R124" s="27"/>
+      <c r="S124" s="27"/>
+      <c r="T124" s="27"/>
+      <c r="U124" s="27"/>
+      <c r="V124" s="27"/>
+      <c r="W124" s="27"/>
+      <c r="X124" s="27"/>
+      <c r="Y124" s="27"/>
+      <c r="Z124" s="27"/>
+      <c r="AA124" s="27"/>
+      <c r="AB124" s="27"/>
+      <c r="AC124" s="27"/>
+      <c r="AD124" s="27"/>
+      <c r="AE124" s="27"/>
+      <c r="AF124" s="27"/>
+      <c r="AG124" s="27"/>
+      <c r="AH124" s="27"/>
+      <c r="AI124" s="27"/>
+      <c r="AJ124" s="27"/>
+      <c r="AK124" s="27"/>
+      <c r="AL124" s="27"/>
+      <c r="AM124" s="27"/>
+      <c r="AN124" s="27"/>
+    </row>
+    <row r="125" spans="1:40">
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
+      <c r="M125" s="27"/>
+      <c r="N125" s="27"/>
+      <c r="O125" s="27"/>
+      <c r="P125" s="27"/>
+      <c r="Q125" s="27"/>
+      <c r="R125" s="27"/>
+      <c r="S125" s="27"/>
+      <c r="T125" s="27"/>
+      <c r="U125" s="27"/>
+      <c r="V125" s="27"/>
+      <c r="W125" s="27"/>
+      <c r="X125" s="27"/>
+      <c r="Y125" s="27"/>
+      <c r="Z125" s="27"/>
+      <c r="AA125" s="27"/>
+      <c r="AB125" s="27"/>
+      <c r="AC125" s="27"/>
+      <c r="AD125" s="27"/>
+      <c r="AE125" s="27"/>
+      <c r="AF125" s="27"/>
+      <c r="AG125" s="27"/>
+      <c r="AH125" s="27"/>
+      <c r="AI125" s="27"/>
+      <c r="AJ125" s="27"/>
+      <c r="AK125" s="27"/>
+      <c r="AL125" s="27"/>
+      <c r="AM125" s="27"/>
+      <c r="AN125" s="27"/>
+    </row>
+    <row r="126" spans="1:40">
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="27"/>
+      <c r="N126" s="27"/>
+      <c r="O126" s="27"/>
+      <c r="P126" s="27"/>
+      <c r="Q126" s="27"/>
+      <c r="R126" s="27"/>
+      <c r="S126" s="27"/>
+      <c r="T126" s="27"/>
+      <c r="U126" s="27"/>
+      <c r="V126" s="27"/>
+      <c r="W126" s="27"/>
+      <c r="X126" s="27"/>
+      <c r="Y126" s="27"/>
+      <c r="Z126" s="27"/>
+      <c r="AA126" s="27"/>
+      <c r="AB126" s="27"/>
+      <c r="AC126" s="27"/>
+      <c r="AD126" s="27"/>
+      <c r="AE126" s="27"/>
+      <c r="AF126" s="27"/>
+      <c r="AG126" s="27"/>
+      <c r="AH126" s="27"/>
+      <c r="AI126" s="27"/>
+      <c r="AJ126" s="27"/>
+      <c r="AK126" s="27"/>
+      <c r="AL126" s="27"/>
+      <c r="AM126" s="27"/>
+      <c r="AN126" s="27"/>
+    </row>
+    <row r="127" spans="1:40">
+      <c r="A127" s="27"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="27"/>
+      <c r="N127" s="27"/>
+      <c r="O127" s="27"/>
+      <c r="P127" s="27"/>
+      <c r="Q127" s="27"/>
+      <c r="R127" s="27"/>
+      <c r="S127" s="27"/>
+      <c r="T127" s="27"/>
+      <c r="U127" s="27"/>
+      <c r="V127" s="27"/>
+      <c r="W127" s="27"/>
+      <c r="X127" s="27"/>
+      <c r="Y127" s="27"/>
+      <c r="Z127" s="27"/>
+      <c r="AA127" s="27"/>
+      <c r="AB127" s="27"/>
+      <c r="AC127" s="27"/>
+      <c r="AD127" s="27"/>
+      <c r="AE127" s="27"/>
+      <c r="AF127" s="27"/>
+      <c r="AG127" s="27"/>
+      <c r="AH127" s="27"/>
+      <c r="AI127" s="27"/>
+      <c r="AJ127" s="27"/>
+      <c r="AK127" s="27"/>
+      <c r="AL127" s="27"/>
+      <c r="AM127" s="27"/>
+      <c r="AN127" s="27"/>
+    </row>
+    <row r="128" spans="1:40">
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="27"/>
+      <c r="Q128" s="27"/>
+      <c r="R128" s="27"/>
+      <c r="S128" s="27"/>
+      <c r="T128" s="27"/>
+      <c r="U128" s="27"/>
+      <c r="V128" s="27"/>
+      <c r="W128" s="27"/>
+      <c r="X128" s="27"/>
+      <c r="Y128" s="27"/>
+      <c r="Z128" s="27"/>
+      <c r="AA128" s="27"/>
+      <c r="AB128" s="27"/>
+      <c r="AC128" s="27"/>
+      <c r="AD128" s="27"/>
+      <c r="AE128" s="27"/>
+      <c r="AF128" s="27"/>
+      <c r="AG128" s="27"/>
+      <c r="AH128" s="27"/>
+      <c r="AI128" s="27"/>
+      <c r="AJ128" s="27"/>
+      <c r="AK128" s="27"/>
+      <c r="AL128" s="27"/>
+      <c r="AM128" s="27"/>
+      <c r="AN128" s="27"/>
+    </row>
+    <row r="129" spans="1:40">
+      <c r="A129" s="27"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="27"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="27"/>
+      <c r="M129" s="27"/>
+      <c r="N129" s="27"/>
+      <c r="O129" s="27"/>
+      <c r="P129" s="27"/>
+      <c r="Q129" s="27"/>
+      <c r="R129" s="27"/>
+      <c r="S129" s="27"/>
+      <c r="T129" s="27"/>
+      <c r="U129" s="27"/>
+      <c r="V129" s="27"/>
+      <c r="W129" s="27"/>
+      <c r="X129" s="27"/>
+      <c r="Y129" s="27"/>
+      <c r="Z129" s="27"/>
+      <c r="AA129" s="27"/>
+      <c r="AB129" s="27"/>
+      <c r="AC129" s="27"/>
+      <c r="AD129" s="27"/>
+      <c r="AE129" s="27"/>
+      <c r="AF129" s="27"/>
+      <c r="AG129" s="27"/>
+      <c r="AH129" s="27"/>
+      <c r="AI129" s="27"/>
+      <c r="AJ129" s="27"/>
+      <c r="AK129" s="27"/>
+      <c r="AL129" s="27"/>
+      <c r="AM129" s="27"/>
+      <c r="AN129" s="27"/>
+    </row>
+    <row r="130" spans="1:40">
+      <c r="A130" s="27"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="27"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="27"/>
+      <c r="O130" s="27"/>
+      <c r="P130" s="27"/>
+      <c r="Q130" s="27"/>
+      <c r="R130" s="27"/>
+      <c r="S130" s="27"/>
+      <c r="T130" s="27"/>
+      <c r="U130" s="27"/>
+      <c r="V130" s="27"/>
+      <c r="W130" s="27"/>
+      <c r="X130" s="27"/>
+      <c r="Y130" s="27"/>
+      <c r="Z130" s="27"/>
+      <c r="AA130" s="27"/>
+      <c r="AB130" s="27"/>
+      <c r="AC130" s="27"/>
+      <c r="AD130" s="27"/>
+      <c r="AE130" s="27"/>
+      <c r="AF130" s="27"/>
+      <c r="AG130" s="27"/>
+      <c r="AH130" s="27"/>
+      <c r="AI130" s="27"/>
+      <c r="AJ130" s="27"/>
+      <c r="AK130" s="27"/>
+      <c r="AL130" s="27"/>
+      <c r="AM130" s="27"/>
+      <c r="AN130" s="27"/>
+    </row>
+    <row r="131" spans="1:40">
+      <c r="A131" s="27"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="27"/>
+      <c r="M131" s="27"/>
+      <c r="N131" s="27"/>
+      <c r="O131" s="27"/>
+      <c r="P131" s="27"/>
+      <c r="Q131" s="27"/>
+      <c r="R131" s="27"/>
+      <c r="S131" s="27"/>
+      <c r="T131" s="27"/>
+      <c r="U131" s="27"/>
+      <c r="V131" s="27"/>
+      <c r="W131" s="27"/>
+      <c r="X131" s="27"/>
+      <c r="Y131" s="27"/>
+      <c r="Z131" s="27"/>
+      <c r="AA131" s="27"/>
+      <c r="AB131" s="27"/>
+      <c r="AC131" s="27"/>
+      <c r="AD131" s="27"/>
+      <c r="AE131" s="27"/>
+      <c r="AF131" s="27"/>
+      <c r="AG131" s="27"/>
+      <c r="AH131" s="27"/>
+      <c r="AI131" s="27"/>
+      <c r="AJ131" s="27"/>
+      <c r="AK131" s="27"/>
+      <c r="AL131" s="27"/>
+      <c r="AM131" s="27"/>
+      <c r="AN131" s="27"/>
+    </row>
+    <row r="132" spans="1:40">
+      <c r="A132" s="27"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="27"/>
+      <c r="P132" s="27"/>
+      <c r="Q132" s="27"/>
+      <c r="R132" s="27"/>
+      <c r="S132" s="27"/>
+      <c r="T132" s="27"/>
+      <c r="U132" s="27"/>
+      <c r="V132" s="27"/>
+      <c r="W132" s="27"/>
+      <c r="X132" s="27"/>
+      <c r="Y132" s="27"/>
+      <c r="Z132" s="27"/>
+      <c r="AA132" s="27"/>
+      <c r="AB132" s="27"/>
+      <c r="AC132" s="27"/>
+      <c r="AD132" s="27"/>
+      <c r="AE132" s="27"/>
+      <c r="AF132" s="27"/>
+      <c r="AG132" s="27"/>
+      <c r="AH132" s="27"/>
+      <c r="AI132" s="27"/>
+      <c r="AJ132" s="27"/>
+      <c r="AK132" s="27"/>
+      <c r="AL132" s="27"/>
+      <c r="AM132" s="27"/>
+      <c r="AN132" s="27"/>
+    </row>
+    <row r="133" spans="1:40">
+      <c r="A133" s="27"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="27"/>
+      <c r="M133" s="27"/>
+      <c r="N133" s="27"/>
+      <c r="O133" s="27"/>
+      <c r="P133" s="27"/>
+      <c r="Q133" s="27"/>
+      <c r="R133" s="27"/>
+      <c r="S133" s="27"/>
+      <c r="T133" s="27"/>
+      <c r="U133" s="27"/>
+      <c r="V133" s="27"/>
+      <c r="W133" s="27"/>
+      <c r="X133" s="27"/>
+      <c r="Y133" s="27"/>
+      <c r="Z133" s="27"/>
+      <c r="AA133" s="27"/>
+      <c r="AB133" s="27"/>
+      <c r="AC133" s="27"/>
+      <c r="AD133" s="27"/>
+      <c r="AE133" s="27"/>
+      <c r="AF133" s="27"/>
+      <c r="AG133" s="27"/>
+      <c r="AH133" s="27"/>
+      <c r="AI133" s="27"/>
+      <c r="AJ133" s="27"/>
+      <c r="AK133" s="27"/>
+      <c r="AL133" s="27"/>
+      <c r="AM133" s="27"/>
+      <c r="AN133" s="27"/>
+    </row>
+    <row r="134" spans="1:40">
+      <c r="A134" s="27"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="27"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="27"/>
+      <c r="M134" s="27"/>
+      <c r="N134" s="27"/>
+      <c r="O134" s="27"/>
+      <c r="P134" s="27"/>
+      <c r="Q134" s="27"/>
+      <c r="R134" s="27"/>
+      <c r="S134" s="27"/>
+      <c r="T134" s="27"/>
+      <c r="U134" s="27"/>
+      <c r="V134" s="27"/>
+      <c r="W134" s="27"/>
+      <c r="X134" s="27"/>
+      <c r="Y134" s="27"/>
+      <c r="Z134" s="27"/>
+      <c r="AA134" s="27"/>
+      <c r="AB134" s="27"/>
+      <c r="AC134" s="27"/>
+      <c r="AD134" s="27"/>
+      <c r="AE134" s="27"/>
+      <c r="AF134" s="27"/>
+      <c r="AG134" s="27"/>
+      <c r="AH134" s="27"/>
+      <c r="AI134" s="27"/>
+      <c r="AJ134" s="27"/>
+      <c r="AK134" s="27"/>
+      <c r="AL134" s="27"/>
+      <c r="AM134" s="27"/>
+      <c r="AN134" s="27"/>
+    </row>
+    <row r="135" spans="1:40">
+      <c r="A135" s="27"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="27"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="27"/>
+      <c r="O135" s="27"/>
+      <c r="P135" s="27"/>
+      <c r="Q135" s="27"/>
+      <c r="R135" s="27"/>
+      <c r="S135" s="27"/>
+      <c r="T135" s="27"/>
+      <c r="U135" s="27"/>
+      <c r="V135" s="27"/>
+      <c r="W135" s="27"/>
+      <c r="X135" s="27"/>
+      <c r="Y135" s="27"/>
+      <c r="Z135" s="27"/>
+      <c r="AA135" s="27"/>
+      <c r="AB135" s="27"/>
+      <c r="AC135" s="27"/>
+      <c r="AD135" s="27"/>
+      <c r="AE135" s="27"/>
+      <c r="AF135" s="27"/>
+      <c r="AG135" s="27"/>
+      <c r="AH135" s="27"/>
+      <c r="AI135" s="27"/>
+      <c r="AJ135" s="27"/>
+      <c r="AK135" s="27"/>
+      <c r="AL135" s="27"/>
+      <c r="AM135" s="27"/>
+      <c r="AN135" s="27"/>
+    </row>
+    <row r="136" spans="1:40">
+      <c r="A136" s="27"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="27"/>
+      <c r="K136" s="27"/>
+      <c r="L136" s="27"/>
+      <c r="M136" s="27"/>
+      <c r="N136" s="27"/>
+      <c r="O136" s="27"/>
+      <c r="P136" s="27"/>
+      <c r="Q136" s="27"/>
+      <c r="R136" s="27"/>
+      <c r="S136" s="27"/>
+      <c r="T136" s="27"/>
+      <c r="U136" s="27"/>
+      <c r="V136" s="27"/>
+      <c r="W136" s="27"/>
+      <c r="X136" s="27"/>
+      <c r="Y136" s="27"/>
+      <c r="Z136" s="27"/>
+      <c r="AA136" s="27"/>
+      <c r="AB136" s="27"/>
+      <c r="AC136" s="27"/>
+      <c r="AD136" s="27"/>
+      <c r="AE136" s="27"/>
+      <c r="AF136" s="27"/>
+      <c r="AG136" s="27"/>
+      <c r="AH136" s="27"/>
+      <c r="AI136" s="27"/>
+      <c r="AJ136" s="27"/>
+      <c r="AK136" s="27"/>
+      <c r="AL136" s="27"/>
+      <c r="AM136" s="27"/>
+      <c r="AN136" s="27"/>
+    </row>
+    <row r="137" spans="1:40">
+      <c r="A137" s="27"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="27"/>
+      <c r="K137" s="27"/>
+      <c r="L137" s="27"/>
+      <c r="M137" s="27"/>
+      <c r="N137" s="27"/>
+      <c r="O137" s="27"/>
+      <c r="P137" s="27"/>
+      <c r="Q137" s="27"/>
+      <c r="R137" s="27"/>
+      <c r="S137" s="27"/>
+      <c r="T137" s="27"/>
+      <c r="U137" s="27"/>
+      <c r="V137" s="27"/>
+      <c r="W137" s="27"/>
+      <c r="X137" s="27"/>
+      <c r="Y137" s="27"/>
+      <c r="Z137" s="27"/>
+      <c r="AA137" s="27"/>
+      <c r="AB137" s="27"/>
+      <c r="AC137" s="27"/>
+      <c r="AD137" s="27"/>
+      <c r="AE137" s="27"/>
+      <c r="AF137" s="27"/>
+      <c r="AG137" s="27"/>
+      <c r="AH137" s="27"/>
+      <c r="AI137" s="27"/>
+      <c r="AJ137" s="27"/>
+      <c r="AK137" s="27"/>
+      <c r="AL137" s="27"/>
+      <c r="AM137" s="27"/>
+      <c r="AN137" s="27"/>
+    </row>
+    <row r="138" spans="1:40">
+      <c r="A138" s="27"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="27"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="27"/>
+      <c r="N138" s="27"/>
+      <c r="O138" s="27"/>
+      <c r="P138" s="27"/>
+      <c r="Q138" s="27"/>
+      <c r="R138" s="27"/>
+      <c r="S138" s="27"/>
+      <c r="T138" s="27"/>
+      <c r="U138" s="27"/>
+      <c r="V138" s="27"/>
+      <c r="W138" s="27"/>
+      <c r="X138" s="27"/>
+      <c r="Y138" s="27"/>
+      <c r="Z138" s="27"/>
+      <c r="AA138" s="27"/>
+      <c r="AB138" s="27"/>
+      <c r="AC138" s="27"/>
+      <c r="AD138" s="27"/>
+      <c r="AE138" s="27"/>
+      <c r="AF138" s="27"/>
+      <c r="AG138" s="27"/>
+      <c r="AH138" s="27"/>
+      <c r="AI138" s="27"/>
+      <c r="AJ138" s="27"/>
+      <c r="AK138" s="27"/>
+      <c r="AL138" s="27"/>
+      <c r="AM138" s="27"/>
+      <c r="AN138" s="27"/>
+    </row>
+    <row r="139" spans="1:40">
+      <c r="A139" s="27"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="27"/>
+      <c r="L139" s="27"/>
+      <c r="M139" s="27"/>
+      <c r="N139" s="27"/>
+      <c r="O139" s="27"/>
+      <c r="P139" s="27"/>
+      <c r="Q139" s="27"/>
+      <c r="R139" s="27"/>
+      <c r="S139" s="27"/>
+      <c r="T139" s="27"/>
+      <c r="U139" s="27"/>
+      <c r="V139" s="27"/>
+      <c r="W139" s="27"/>
+      <c r="X139" s="27"/>
+      <c r="Y139" s="27"/>
+      <c r="Z139" s="27"/>
+      <c r="AA139" s="27"/>
+      <c r="AB139" s="27"/>
+      <c r="AC139" s="27"/>
+      <c r="AD139" s="27"/>
+      <c r="AE139" s="27"/>
+      <c r="AF139" s="27"/>
+      <c r="AG139" s="27"/>
+      <c r="AH139" s="27"/>
+      <c r="AI139" s="27"/>
+      <c r="AJ139" s="27"/>
+      <c r="AK139" s="27"/>
+      <c r="AL139" s="27"/>
+      <c r="AM139" s="27"/>
+      <c r="AN139" s="27"/>
+    </row>
+    <row r="140" spans="1:40">
+      <c r="A140" s="27"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="27"/>
+      <c r="K140" s="27"/>
+      <c r="L140" s="27"/>
+      <c r="M140" s="27"/>
+      <c r="N140" s="27"/>
+      <c r="O140" s="27"/>
+      <c r="P140" s="27"/>
+      <c r="Q140" s="27"/>
+      <c r="R140" s="27"/>
+      <c r="S140" s="27"/>
+      <c r="T140" s="27"/>
+      <c r="U140" s="27"/>
+      <c r="V140" s="27"/>
+      <c r="W140" s="27"/>
+      <c r="X140" s="27"/>
+      <c r="Y140" s="27"/>
+      <c r="Z140" s="27"/>
+      <c r="AA140" s="27"/>
+      <c r="AB140" s="27"/>
+      <c r="AC140" s="27"/>
+      <c r="AD140" s="27"/>
+      <c r="AE140" s="27"/>
+      <c r="AF140" s="27"/>
+      <c r="AG140" s="27"/>
+      <c r="AH140" s="27"/>
+      <c r="AI140" s="27"/>
+      <c r="AJ140" s="27"/>
+      <c r="AK140" s="27"/>
+      <c r="AL140" s="27"/>
+      <c r="AM140" s="27"/>
+      <c r="AN140" s="27"/>
+    </row>
+    <row r="141" spans="1:40">
+      <c r="A141" s="27"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
+      <c r="K141" s="27"/>
+      <c r="L141" s="27"/>
+      <c r="M141" s="27"/>
+      <c r="N141" s="27"/>
+      <c r="O141" s="27"/>
+      <c r="P141" s="27"/>
+      <c r="Q141" s="27"/>
+      <c r="R141" s="27"/>
+      <c r="S141" s="27"/>
+      <c r="T141" s="27"/>
+      <c r="U141" s="27"/>
+      <c r="V141" s="27"/>
+      <c r="W141" s="27"/>
+      <c r="X141" s="27"/>
+      <c r="Y141" s="27"/>
+      <c r="Z141" s="27"/>
+      <c r="AA141" s="27"/>
+      <c r="AB141" s="27"/>
+      <c r="AC141" s="27"/>
+      <c r="AD141" s="27"/>
+      <c r="AE141" s="27"/>
+      <c r="AF141" s="27"/>
+      <c r="AG141" s="27"/>
+      <c r="AH141" s="27"/>
+      <c r="AI141" s="27"/>
+      <c r="AJ141" s="27"/>
+      <c r="AK141" s="27"/>
+      <c r="AL141" s="27"/>
+      <c r="AM141" s="27"/>
+      <c r="AN141" s="27"/>
+    </row>
+    <row r="142" spans="1:40">
+      <c r="A142" s="27"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="27"/>
+      <c r="K142" s="27"/>
+      <c r="L142" s="27"/>
+      <c r="M142" s="27"/>
+      <c r="N142" s="27"/>
+      <c r="O142" s="27"/>
+      <c r="P142" s="27"/>
+      <c r="Q142" s="27"/>
+      <c r="R142" s="27"/>
+      <c r="S142" s="27"/>
+      <c r="T142" s="27"/>
+      <c r="U142" s="27"/>
+      <c r="V142" s="27"/>
+      <c r="W142" s="27"/>
+      <c r="X142" s="27"/>
+      <c r="Y142" s="27"/>
+      <c r="Z142" s="27"/>
+      <c r="AA142" s="27"/>
+      <c r="AB142" s="27"/>
+      <c r="AC142" s="27"/>
+      <c r="AD142" s="27"/>
+      <c r="AE142" s="27"/>
+      <c r="AF142" s="27"/>
+      <c r="AG142" s="27"/>
+      <c r="AH142" s="27"/>
+      <c r="AI142" s="27"/>
+      <c r="AJ142" s="27"/>
+      <c r="AK142" s="27"/>
+      <c r="AL142" s="27"/>
+      <c r="AM142" s="27"/>
+      <c r="AN142" s="27"/>
+    </row>
+    <row r="143" spans="1:40">
+      <c r="A143" s="27"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="27"/>
+      <c r="K143" s="27"/>
+      <c r="L143" s="27"/>
+      <c r="M143" s="27"/>
+      <c r="N143" s="27"/>
+      <c r="O143" s="27"/>
+      <c r="P143" s="27"/>
+      <c r="Q143" s="27"/>
+      <c r="R143" s="27"/>
+      <c r="S143" s="27"/>
+      <c r="T143" s="27"/>
+      <c r="U143" s="27"/>
+      <c r="V143" s="27"/>
+      <c r="W143" s="27"/>
+      <c r="X143" s="27"/>
+      <c r="Y143" s="27"/>
+      <c r="Z143" s="27"/>
+      <c r="AA143" s="27"/>
+      <c r="AB143" s="27"/>
+      <c r="AC143" s="27"/>
+      <c r="AD143" s="27"/>
+      <c r="AE143" s="27"/>
+      <c r="AF143" s="27"/>
+      <c r="AG143" s="27"/>
+      <c r="AH143" s="27"/>
+      <c r="AI143" s="27"/>
+      <c r="AJ143" s="27"/>
+      <c r="AK143" s="27"/>
+      <c r="AL143" s="27"/>
+      <c r="AM143" s="27"/>
+      <c r="AN143" s="27"/>
+    </row>
+    <row r="144" spans="1:40">
+      <c r="A144" s="27"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="27"/>
+      <c r="K144" s="27"/>
+      <c r="L144" s="27"/>
+      <c r="M144" s="27"/>
+      <c r="N144" s="27"/>
+      <c r="O144" s="27"/>
+      <c r="P144" s="27"/>
+      <c r="Q144" s="27"/>
+      <c r="R144" s="27"/>
+      <c r="S144" s="27"/>
+      <c r="T144" s="27"/>
+      <c r="U144" s="27"/>
+      <c r="V144" s="27"/>
+      <c r="W144" s="27"/>
+      <c r="X144" s="27"/>
+      <c r="Y144" s="27"/>
+      <c r="Z144" s="27"/>
+      <c r="AA144" s="27"/>
+      <c r="AB144" s="27"/>
+      <c r="AC144" s="27"/>
+      <c r="AD144" s="27"/>
+      <c r="AE144" s="27"/>
+      <c r="AF144" s="27"/>
+      <c r="AG144" s="27"/>
+      <c r="AH144" s="27"/>
+      <c r="AI144" s="27"/>
+      <c r="AJ144" s="27"/>
+      <c r="AK144" s="27"/>
+      <c r="AL144" s="27"/>
+      <c r="AM144" s="27"/>
+      <c r="AN144" s="27"/>
+    </row>
+    <row r="145" spans="1:40">
+      <c r="A145" s="27"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="27"/>
+      <c r="K145" s="27"/>
+      <c r="L145" s="27"/>
+      <c r="M145" s="27"/>
+      <c r="N145" s="27"/>
+      <c r="O145" s="27"/>
+      <c r="P145" s="27"/>
+      <c r="Q145" s="27"/>
+      <c r="R145" s="27"/>
+      <c r="S145" s="27"/>
+      <c r="T145" s="27"/>
+      <c r="U145" s="27"/>
+      <c r="V145" s="27"/>
+      <c r="W145" s="27"/>
+      <c r="X145" s="27"/>
+      <c r="Y145" s="27"/>
+      <c r="Z145" s="27"/>
+      <c r="AA145" s="27"/>
+      <c r="AB145" s="27"/>
+      <c r="AC145" s="27"/>
+      <c r="AD145" s="27"/>
+      <c r="AE145" s="27"/>
+      <c r="AF145" s="27"/>
+      <c r="AG145" s="27"/>
+      <c r="AH145" s="27"/>
+      <c r="AI145" s="27"/>
+      <c r="AJ145" s="27"/>
+      <c r="AK145" s="27"/>
+      <c r="AL145" s="27"/>
+      <c r="AM145" s="27"/>
+      <c r="AN145" s="27"/>
+    </row>
+    <row r="146" spans="1:40">
+      <c r="A146" s="27"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="27"/>
+      <c r="K146" s="27"/>
+      <c r="L146" s="27"/>
+      <c r="M146" s="27"/>
+      <c r="N146" s="27"/>
+      <c r="O146" s="27"/>
+      <c r="P146" s="27"/>
+      <c r="Q146" s="27"/>
+      <c r="R146" s="27"/>
+      <c r="S146" s="27"/>
+      <c r="T146" s="27"/>
+      <c r="U146" s="27"/>
+      <c r="V146" s="27"/>
+      <c r="W146" s="27"/>
+      <c r="X146" s="27"/>
+      <c r="Y146" s="27"/>
+      <c r="Z146" s="27"/>
+      <c r="AA146" s="27"/>
+      <c r="AB146" s="27"/>
+      <c r="AC146" s="27"/>
+      <c r="AD146" s="27"/>
+      <c r="AE146" s="27"/>
+      <c r="AF146" s="27"/>
+      <c r="AG146" s="27"/>
+      <c r="AH146" s="27"/>
+      <c r="AI146" s="27"/>
+      <c r="AJ146" s="27"/>
+      <c r="AK146" s="27"/>
+      <c r="AL146" s="27"/>
+      <c r="AM146" s="27"/>
+      <c r="AN146" s="27"/>
+    </row>
+    <row r="147" spans="1:40">
+      <c r="A147" s="27"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="27"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="27"/>
+      <c r="M147" s="27"/>
+      <c r="N147" s="27"/>
+      <c r="O147" s="27"/>
+      <c r="P147" s="27"/>
+      <c r="Q147" s="27"/>
+      <c r="R147" s="27"/>
+      <c r="S147" s="27"/>
+      <c r="T147" s="27"/>
+      <c r="U147" s="27"/>
+      <c r="V147" s="27"/>
+      <c r="W147" s="27"/>
+      <c r="X147" s="27"/>
+      <c r="Y147" s="27"/>
+      <c r="Z147" s="27"/>
+      <c r="AA147" s="27"/>
+      <c r="AB147" s="27"/>
+      <c r="AC147" s="27"/>
+      <c r="AD147" s="27"/>
+      <c r="AE147" s="27"/>
+      <c r="AF147" s="27"/>
+      <c r="AG147" s="27"/>
+      <c r="AH147" s="27"/>
+      <c r="AI147" s="27"/>
+      <c r="AJ147" s="27"/>
+      <c r="AK147" s="27"/>
+      <c r="AL147" s="27"/>
+      <c r="AM147" s="27"/>
+      <c r="AN147" s="27"/>
+    </row>
+    <row r="148" spans="1:40">
+      <c r="A148" s="27"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="27"/>
+      <c r="K148" s="27"/>
+      <c r="L148" s="27"/>
+      <c r="M148" s="27"/>
+      <c r="N148" s="27"/>
+      <c r="O148" s="27"/>
+      <c r="P148" s="27"/>
+      <c r="Q148" s="27"/>
+      <c r="R148" s="27"/>
+      <c r="S148" s="27"/>
+      <c r="T148" s="27"/>
+      <c r="U148" s="27"/>
+      <c r="V148" s="27"/>
+      <c r="W148" s="27"/>
+      <c r="X148" s="27"/>
+      <c r="Y148" s="27"/>
+      <c r="Z148" s="27"/>
+      <c r="AA148" s="27"/>
+      <c r="AB148" s="27"/>
+      <c r="AC148" s="27"/>
+      <c r="AD148" s="27"/>
+      <c r="AE148" s="27"/>
+      <c r="AF148" s="27"/>
+      <c r="AG148" s="27"/>
+      <c r="AH148" s="27"/>
+      <c r="AI148" s="27"/>
+      <c r="AJ148" s="27"/>
+      <c r="AK148" s="27"/>
+      <c r="AL148" s="27"/>
+      <c r="AM148" s="27"/>
+      <c r="AN148" s="27"/>
+    </row>
+    <row r="149" spans="1:40">
+      <c r="A149" s="27"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="27"/>
+      <c r="M149" s="27"/>
+      <c r="N149" s="27"/>
+      <c r="O149" s="27"/>
+      <c r="P149" s="27"/>
+      <c r="Q149" s="27"/>
+      <c r="R149" s="27"/>
+      <c r="S149" s="27"/>
+      <c r="T149" s="27"/>
+      <c r="U149" s="27"/>
+      <c r="V149" s="27"/>
+      <c r="W149" s="27"/>
+      <c r="X149" s="27"/>
+      <c r="Y149" s="27"/>
+      <c r="Z149" s="27"/>
+      <c r="AA149" s="27"/>
+      <c r="AB149" s="27"/>
+      <c r="AC149" s="27"/>
+      <c r="AD149" s="27"/>
+      <c r="AE149" s="27"/>
+      <c r="AF149" s="27"/>
+      <c r="AG149" s="27"/>
+      <c r="AH149" s="27"/>
+      <c r="AI149" s="27"/>
+      <c r="AJ149" s="27"/>
+      <c r="AK149" s="27"/>
+      <c r="AL149" s="27"/>
+      <c r="AM149" s="27"/>
+      <c r="AN149" s="27"/>
+    </row>
+    <row r="150" spans="1:40">
+      <c r="A150" s="27"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="27"/>
+      <c r="K150" s="27"/>
+      <c r="L150" s="27"/>
+      <c r="M150" s="27"/>
+      <c r="N150" s="27"/>
+      <c r="O150" s="27"/>
+      <c r="P150" s="27"/>
+      <c r="Q150" s="27"/>
+      <c r="R150" s="27"/>
+      <c r="S150" s="27"/>
+      <c r="T150" s="27"/>
+      <c r="U150" s="27"/>
+      <c r="V150" s="27"/>
+      <c r="W150" s="27"/>
+      <c r="X150" s="27"/>
+      <c r="Y150" s="27"/>
+      <c r="Z150" s="27"/>
+      <c r="AA150" s="27"/>
+      <c r="AB150" s="27"/>
+      <c r="AC150" s="27"/>
+      <c r="AD150" s="27"/>
+      <c r="AE150" s="27"/>
+      <c r="AF150" s="27"/>
+      <c r="AG150" s="27"/>
+      <c r="AH150" s="27"/>
+      <c r="AI150" s="27"/>
+      <c r="AJ150" s="27"/>
+      <c r="AK150" s="27"/>
+      <c r="AL150" s="27"/>
+      <c r="AM150" s="27"/>
+      <c r="AN150" s="27"/>
+    </row>
+    <row r="151" spans="1:40">
+      <c r="A151" s="27"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="27"/>
+      <c r="K151" s="27"/>
+      <c r="L151" s="27"/>
+      <c r="M151" s="27"/>
+      <c r="N151" s="27"/>
+      <c r="O151" s="27"/>
+      <c r="P151" s="27"/>
+      <c r="Q151" s="27"/>
+      <c r="R151" s="27"/>
+      <c r="S151" s="27"/>
+      <c r="T151" s="27"/>
+      <c r="U151" s="27"/>
+      <c r="V151" s="27"/>
+      <c r="W151" s="27"/>
+      <c r="X151" s="27"/>
+      <c r="Y151" s="27"/>
+      <c r="Z151" s="27"/>
+      <c r="AA151" s="27"/>
+      <c r="AB151" s="27"/>
+      <c r="AC151" s="27"/>
+      <c r="AD151" s="27"/>
+      <c r="AE151" s="27"/>
+      <c r="AF151" s="27"/>
+      <c r="AG151" s="27"/>
+      <c r="AH151" s="27"/>
+      <c r="AI151" s="27"/>
+      <c r="AJ151" s="27"/>
+      <c r="AK151" s="27"/>
+      <c r="AL151" s="27"/>
+      <c r="AM151" s="27"/>
+      <c r="AN151" s="27"/>
+    </row>
+    <row r="152" spans="1:40">
+      <c r="A152" s="27"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="27"/>
+      <c r="K152" s="27"/>
+      <c r="L152" s="27"/>
+      <c r="M152" s="27"/>
+      <c r="N152" s="27"/>
+      <c r="O152" s="27"/>
+      <c r="P152" s="27"/>
+      <c r="Q152" s="27"/>
+      <c r="R152" s="27"/>
+      <c r="S152" s="27"/>
+      <c r="T152" s="27"/>
+      <c r="U152" s="27"/>
+      <c r="V152" s="27"/>
+      <c r="W152" s="27"/>
+      <c r="X152" s="27"/>
+      <c r="Y152" s="27"/>
+      <c r="Z152" s="27"/>
+      <c r="AA152" s="27"/>
+      <c r="AB152" s="27"/>
+      <c r="AC152" s="27"/>
+      <c r="AD152" s="27"/>
+      <c r="AE152" s="27"/>
+      <c r="AF152" s="27"/>
+      <c r="AG152" s="27"/>
+      <c r="AH152" s="27"/>
+      <c r="AI152" s="27"/>
+      <c r="AJ152" s="27"/>
+      <c r="AK152" s="27"/>
+      <c r="AL152" s="27"/>
+      <c r="AM152" s="27"/>
+      <c r="AN152" s="27"/>
+    </row>
+    <row r="153" spans="1:40">
+      <c r="A153" s="27"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="27"/>
+      <c r="K153" s="27"/>
+      <c r="L153" s="27"/>
+      <c r="M153" s="27"/>
+      <c r="N153" s="27"/>
+      <c r="O153" s="27"/>
+      <c r="P153" s="27"/>
+      <c r="Q153" s="27"/>
+      <c r="R153" s="27"/>
+      <c r="S153" s="27"/>
+      <c r="T153" s="27"/>
+      <c r="U153" s="27"/>
+      <c r="V153" s="27"/>
+      <c r="W153" s="27"/>
+      <c r="X153" s="27"/>
+      <c r="Y153" s="27"/>
+      <c r="Z153" s="27"/>
+      <c r="AA153" s="27"/>
+      <c r="AB153" s="27"/>
+      <c r="AC153" s="27"/>
+      <c r="AD153" s="27"/>
+      <c r="AE153" s="27"/>
+      <c r="AF153" s="27"/>
+      <c r="AG153" s="27"/>
+      <c r="AH153" s="27"/>
+      <c r="AI153" s="27"/>
+      <c r="AJ153" s="27"/>
+      <c r="AK153" s="27"/>
+      <c r="AL153" s="27"/>
+      <c r="AM153" s="27"/>
+      <c r="AN153" s="27"/>
+    </row>
+    <row r="154" spans="1:40">
+      <c r="A154" s="27"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="27"/>
+      <c r="K154" s="27"/>
+      <c r="L154" s="27"/>
+      <c r="M154" s="27"/>
+      <c r="N154" s="27"/>
+      <c r="O154" s="27"/>
+      <c r="P154" s="27"/>
+      <c r="Q154" s="27"/>
+      <c r="R154" s="27"/>
+      <c r="S154" s="27"/>
+      <c r="T154" s="27"/>
+      <c r="U154" s="27"/>
+      <c r="V154" s="27"/>
+      <c r="W154" s="27"/>
+      <c r="X154" s="27"/>
+      <c r="Y154" s="27"/>
+      <c r="Z154" s="27"/>
+      <c r="AA154" s="27"/>
+      <c r="AB154" s="27"/>
+      <c r="AC154" s="27"/>
+      <c r="AD154" s="27"/>
+      <c r="AE154" s="27"/>
+      <c r="AF154" s="27"/>
+      <c r="AG154" s="27"/>
+      <c r="AH154" s="27"/>
+      <c r="AI154" s="27"/>
+      <c r="AJ154" s="27"/>
+      <c r="AK154" s="27"/>
+      <c r="AL154" s="27"/>
+      <c r="AM154" s="27"/>
+      <c r="AN154" s="27"/>
+    </row>
+    <row r="155" spans="1:40">
+      <c r="A155" s="27"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="27"/>
+      <c r="K155" s="27"/>
+      <c r="L155" s="27"/>
+      <c r="M155" s="27"/>
+      <c r="N155" s="27"/>
+      <c r="O155" s="27"/>
+      <c r="P155" s="27"/>
+      <c r="Q155" s="27"/>
+      <c r="R155" s="27"/>
+      <c r="S155" s="27"/>
+      <c r="T155" s="27"/>
+      <c r="U155" s="27"/>
+      <c r="V155" s="27"/>
+      <c r="W155" s="27"/>
+      <c r="X155" s="27"/>
+      <c r="Y155" s="27"/>
+      <c r="Z155" s="27"/>
+      <c r="AA155" s="27"/>
+      <c r="AB155" s="27"/>
+      <c r="AC155" s="27"/>
+      <c r="AD155" s="27"/>
+      <c r="AE155" s="27"/>
+      <c r="AF155" s="27"/>
+      <c r="AG155" s="27"/>
+      <c r="AH155" s="27"/>
+      <c r="AI155" s="27"/>
+      <c r="AJ155" s="27"/>
+      <c r="AK155" s="27"/>
+      <c r="AL155" s="27"/>
+      <c r="AM155" s="27"/>
+      <c r="AN155" s="27"/>
+    </row>
+    <row r="156" spans="1:40">
+      <c r="A156" s="27"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="27"/>
+      <c r="K156" s="27"/>
+      <c r="L156" s="27"/>
+      <c r="M156" s="27"/>
+      <c r="N156" s="27"/>
+      <c r="O156" s="27"/>
+      <c r="P156" s="27"/>
+      <c r="Q156" s="27"/>
+      <c r="R156" s="27"/>
+      <c r="S156" s="27"/>
+      <c r="T156" s="27"/>
+      <c r="U156" s="27"/>
+      <c r="V156" s="27"/>
+      <c r="W156" s="27"/>
+      <c r="X156" s="27"/>
+      <c r="Y156" s="27"/>
+      <c r="Z156" s="27"/>
+      <c r="AA156" s="27"/>
+      <c r="AB156" s="27"/>
+      <c r="AC156" s="27"/>
+      <c r="AD156" s="27"/>
+      <c r="AE156" s="27"/>
+      <c r="AF156" s="27"/>
+      <c r="AG156" s="27"/>
+      <c r="AH156" s="27"/>
+      <c r="AI156" s="27"/>
+      <c r="AJ156" s="27"/>
+      <c r="AK156" s="27"/>
+      <c r="AL156" s="27"/>
+      <c r="AM156" s="27"/>
+      <c r="AN156" s="27"/>
+    </row>
+    <row r="157" spans="1:40">
+      <c r="A157" s="27"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="27"/>
+      <c r="K157" s="27"/>
+      <c r="L157" s="27"/>
+      <c r="M157" s="27"/>
+      <c r="N157" s="27"/>
+      <c r="O157" s="27"/>
+      <c r="P157" s="27"/>
+      <c r="Q157" s="27"/>
+      <c r="R157" s="27"/>
+      <c r="S157" s="27"/>
+      <c r="T157" s="27"/>
+      <c r="U157" s="27"/>
+      <c r="V157" s="27"/>
+      <c r="W157" s="27"/>
+      <c r="X157" s="27"/>
+      <c r="Y157" s="27"/>
+      <c r="Z157" s="27"/>
+      <c r="AA157" s="27"/>
+      <c r="AB157" s="27"/>
+      <c r="AC157" s="27"/>
+      <c r="AD157" s="27"/>
+      <c r="AE157" s="27"/>
+      <c r="AF157" s="27"/>
+      <c r="AG157" s="27"/>
+      <c r="AH157" s="27"/>
+      <c r="AI157" s="27"/>
+      <c r="AJ157" s="27"/>
+      <c r="AK157" s="27"/>
+      <c r="AL157" s="27"/>
+      <c r="AM157" s="27"/>
+      <c r="AN157" s="27"/>
+    </row>
+    <row r="158" spans="1:40">
+      <c r="A158" s="27"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="27"/>
+      <c r="K158" s="27"/>
+      <c r="L158" s="27"/>
+      <c r="M158" s="27"/>
+      <c r="N158" s="27"/>
+      <c r="O158" s="27"/>
+      <c r="P158" s="27"/>
+      <c r="Q158" s="27"/>
+      <c r="R158" s="27"/>
+      <c r="S158" s="27"/>
+      <c r="T158" s="27"/>
+      <c r="U158" s="27"/>
+      <c r="V158" s="27"/>
+      <c r="W158" s="27"/>
+      <c r="X158" s="27"/>
+      <c r="Y158" s="27"/>
+      <c r="Z158" s="27"/>
+      <c r="AA158" s="27"/>
+      <c r="AB158" s="27"/>
+      <c r="AC158" s="27"/>
+      <c r="AD158" s="27"/>
+      <c r="AE158" s="27"/>
+      <c r="AF158" s="27"/>
+      <c r="AG158" s="27"/>
+      <c r="AH158" s="27"/>
+      <c r="AI158" s="27"/>
+      <c r="AJ158" s="27"/>
+      <c r="AK158" s="27"/>
+      <c r="AL158" s="27"/>
+      <c r="AM158" s="27"/>
+      <c r="AN158" s="27"/>
+    </row>
+    <row r="159" spans="1:40">
+      <c r="A159" s="27"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="27"/>
+      <c r="K159" s="27"/>
+      <c r="L159" s="27"/>
+      <c r="M159" s="27"/>
+      <c r="N159" s="27"/>
+      <c r="O159" s="27"/>
+      <c r="P159" s="27"/>
+      <c r="Q159" s="27"/>
+      <c r="R159" s="27"/>
+      <c r="S159" s="27"/>
+      <c r="T159" s="27"/>
+      <c r="U159" s="27"/>
+      <c r="V159" s="27"/>
+      <c r="W159" s="27"/>
+      <c r="X159" s="27"/>
+      <c r="Y159" s="27"/>
+      <c r="Z159" s="27"/>
+      <c r="AA159" s="27"/>
+      <c r="AB159" s="27"/>
+      <c r="AC159" s="27"/>
+      <c r="AD159" s="27"/>
+      <c r="AE159" s="27"/>
+      <c r="AF159" s="27"/>
+      <c r="AG159" s="27"/>
+      <c r="AH159" s="27"/>
+      <c r="AI159" s="27"/>
+      <c r="AJ159" s="27"/>
+      <c r="AK159" s="27"/>
+      <c r="AL159" s="27"/>
+      <c r="AM159" s="27"/>
+      <c r="AN159" s="27"/>
+    </row>
+    <row r="160" spans="1:40">
+      <c r="A160" s="27"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="27"/>
+      <c r="K160" s="27"/>
+      <c r="L160" s="27"/>
+      <c r="M160" s="27"/>
+      <c r="N160" s="27"/>
+      <c r="O160" s="27"/>
+      <c r="P160" s="27"/>
+      <c r="Q160" s="27"/>
+      <c r="R160" s="27"/>
+      <c r="S160" s="27"/>
+      <c r="T160" s="27"/>
+      <c r="U160" s="27"/>
+      <c r="V160" s="27"/>
+      <c r="W160" s="27"/>
+      <c r="X160" s="27"/>
+      <c r="Y160" s="27"/>
+      <c r="Z160" s="27"/>
+      <c r="AA160" s="27"/>
+      <c r="AB160" s="27"/>
+      <c r="AC160" s="27"/>
+      <c r="AD160" s="27"/>
+      <c r="AE160" s="27"/>
+      <c r="AF160" s="27"/>
+      <c r="AG160" s="27"/>
+      <c r="AH160" s="27"/>
+      <c r="AI160" s="27"/>
+      <c r="AJ160" s="27"/>
+      <c r="AK160" s="27"/>
+      <c r="AL160" s="27"/>
+      <c r="AM160" s="27"/>
+      <c r="AN160" s="27"/>
+    </row>
+    <row r="161" spans="1:40">
+      <c r="A161" s="27"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="27"/>
+      <c r="K161" s="27"/>
+      <c r="L161" s="27"/>
+      <c r="M161" s="27"/>
+      <c r="N161" s="27"/>
+      <c r="O161" s="27"/>
+      <c r="P161" s="27"/>
+      <c r="Q161" s="27"/>
+      <c r="R161" s="27"/>
+      <c r="S161" s="27"/>
+      <c r="T161" s="27"/>
+      <c r="U161" s="27"/>
+      <c r="V161" s="27"/>
+      <c r="W161" s="27"/>
+      <c r="X161" s="27"/>
+      <c r="Y161" s="27"/>
+      <c r="Z161" s="27"/>
+      <c r="AA161" s="27"/>
+      <c r="AB161" s="27"/>
+      <c r="AC161" s="27"/>
+      <c r="AD161" s="27"/>
+      <c r="AE161" s="27"/>
+      <c r="AF161" s="27"/>
+      <c r="AG161" s="27"/>
+      <c r="AH161" s="27"/>
+      <c r="AI161" s="27"/>
+      <c r="AJ161" s="27"/>
+      <c r="AK161" s="27"/>
+      <c r="AL161" s="27"/>
+      <c r="AM161" s="27"/>
+      <c r="AN161" s="27"/>
+    </row>
+    <row r="162" spans="1:40">
+      <c r="A162" s="27"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="27"/>
+      <c r="K162" s="27"/>
+      <c r="L162" s="27"/>
+      <c r="M162" s="27"/>
+      <c r="N162" s="27"/>
+      <c r="O162" s="27"/>
+      <c r="P162" s="27"/>
+      <c r="Q162" s="27"/>
+      <c r="R162" s="27"/>
+      <c r="S162" s="27"/>
+      <c r="T162" s="27"/>
+      <c r="U162" s="27"/>
+      <c r="V162" s="27"/>
+      <c r="W162" s="27"/>
+      <c r="X162" s="27"/>
+      <c r="Y162" s="27"/>
+      <c r="Z162" s="27"/>
+      <c r="AA162" s="27"/>
+      <c r="AB162" s="27"/>
+      <c r="AC162" s="27"/>
+      <c r="AD162" s="27"/>
+      <c r="AE162" s="27"/>
+      <c r="AF162" s="27"/>
+      <c r="AG162" s="27"/>
+      <c r="AH162" s="27"/>
+      <c r="AI162" s="27"/>
+      <c r="AJ162" s="27"/>
+      <c r="AK162" s="27"/>
+      <c r="AL162" s="27"/>
+      <c r="AM162" s="27"/>
+      <c r="AN162" s="27"/>
+    </row>
+    <row r="163" spans="1:40">
+      <c r="A163" s="27"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="27"/>
+      <c r="L163" s="27"/>
+      <c r="M163" s="27"/>
+      <c r="N163" s="27"/>
+      <c r="O163" s="27"/>
+      <c r="P163" s="27"/>
+      <c r="Q163" s="27"/>
+      <c r="R163" s="27"/>
+      <c r="S163" s="27"/>
+      <c r="T163" s="27"/>
+      <c r="U163" s="27"/>
+      <c r="V163" s="27"/>
+      <c r="W163" s="27"/>
+      <c r="X163" s="27"/>
+      <c r="Y163" s="27"/>
+      <c r="Z163" s="27"/>
+      <c r="AA163" s="27"/>
+      <c r="AB163" s="27"/>
+      <c r="AC163" s="27"/>
+      <c r="AD163" s="27"/>
+      <c r="AE163" s="27"/>
+      <c r="AF163" s="27"/>
+      <c r="AG163" s="27"/>
+      <c r="AH163" s="27"/>
+      <c r="AI163" s="27"/>
+      <c r="AJ163" s="27"/>
+      <c r="AK163" s="27"/>
+      <c r="AL163" s="27"/>
+      <c r="AM163" s="27"/>
+      <c r="AN163" s="27"/>
+    </row>
+    <row r="164" spans="1:40">
+      <c r="A164" s="27"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="27"/>
+      <c r="K164" s="27"/>
+      <c r="L164" s="27"/>
+      <c r="M164" s="27"/>
+      <c r="N164" s="27"/>
+      <c r="O164" s="27"/>
+      <c r="P164" s="27"/>
+      <c r="Q164" s="27"/>
+      <c r="R164" s="27"/>
+      <c r="S164" s="27"/>
+      <c r="T164" s="27"/>
+      <c r="U164" s="27"/>
+      <c r="V164" s="27"/>
+      <c r="W164" s="27"/>
+      <c r="X164" s="27"/>
+      <c r="Y164" s="27"/>
+      <c r="Z164" s="27"/>
+      <c r="AA164" s="27"/>
+      <c r="AB164" s="27"/>
+      <c r="AC164" s="27"/>
+      <c r="AD164" s="27"/>
+      <c r="AE164" s="27"/>
+      <c r="AF164" s="27"/>
+      <c r="AG164" s="27"/>
+      <c r="AH164" s="27"/>
+      <c r="AI164" s="27"/>
+      <c r="AJ164" s="27"/>
+      <c r="AK164" s="27"/>
+      <c r="AL164" s="27"/>
+      <c r="AM164" s="27"/>
+      <c r="AN164" s="27"/>
+    </row>
+    <row r="165" spans="1:40">
+      <c r="A165" s="27"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="27"/>
+      <c r="K165" s="27"/>
+      <c r="L165" s="27"/>
+      <c r="M165" s="27"/>
+      <c r="N165" s="27"/>
+      <c r="O165" s="27"/>
+      <c r="P165" s="27"/>
+      <c r="Q165" s="27"/>
+      <c r="R165" s="27"/>
+      <c r="S165" s="27"/>
+      <c r="T165" s="27"/>
+      <c r="U165" s="27"/>
+      <c r="V165" s="27"/>
+      <c r="W165" s="27"/>
+      <c r="X165" s="27"/>
+      <c r="Y165" s="27"/>
+      <c r="Z165" s="27"/>
+      <c r="AA165" s="27"/>
+      <c r="AB165" s="27"/>
+      <c r="AC165" s="27"/>
+      <c r="AD165" s="27"/>
+      <c r="AE165" s="27"/>
+      <c r="AF165" s="27"/>
+      <c r="AG165" s="27"/>
+      <c r="AH165" s="27"/>
+      <c r="AI165" s="27"/>
+      <c r="AJ165" s="27"/>
+      <c r="AK165" s="27"/>
+      <c r="AL165" s="27"/>
+      <c r="AM165" s="27"/>
+      <c r="AN165" s="27"/>
+    </row>
+    <row r="166" spans="1:40">
+      <c r="A166" s="27"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="27"/>
+      <c r="K166" s="27"/>
+      <c r="L166" s="27"/>
+      <c r="M166" s="27"/>
+      <c r="N166" s="27"/>
+      <c r="O166" s="27"/>
+      <c r="P166" s="27"/>
+      <c r="Q166" s="27"/>
+      <c r="R166" s="27"/>
+      <c r="S166" s="27"/>
+      <c r="T166" s="27"/>
+      <c r="U166" s="27"/>
+      <c r="V166" s="27"/>
+      <c r="W166" s="27"/>
+      <c r="X166" s="27"/>
+      <c r="Y166" s="27"/>
+      <c r="Z166" s="27"/>
+      <c r="AA166" s="27"/>
+      <c r="AB166" s="27"/>
+      <c r="AC166" s="27"/>
+      <c r="AD166" s="27"/>
+      <c r="AE166" s="27"/>
+      <c r="AF166" s="27"/>
+      <c r="AG166" s="27"/>
+      <c r="AH166" s="27"/>
+      <c r="AI166" s="27"/>
+      <c r="AJ166" s="27"/>
+      <c r="AK166" s="27"/>
+      <c r="AL166" s="27"/>
+      <c r="AM166" s="27"/>
+      <c r="AN166" s="27"/>
+    </row>
+    <row r="167" spans="1:40">
+      <c r="A167" s="27"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="27"/>
+      <c r="K167" s="27"/>
+      <c r="L167" s="27"/>
+      <c r="M167" s="27"/>
+      <c r="N167" s="27"/>
+      <c r="O167" s="27"/>
+      <c r="P167" s="27"/>
+      <c r="Q167" s="27"/>
+      <c r="R167" s="27"/>
+      <c r="S167" s="27"/>
+      <c r="T167" s="27"/>
+      <c r="U167" s="27"/>
+      <c r="V167" s="27"/>
+      <c r="W167" s="27"/>
+      <c r="X167" s="27"/>
+      <c r="Y167" s="27"/>
+      <c r="Z167" s="27"/>
+      <c r="AA167" s="27"/>
+      <c r="AB167" s="27"/>
+      <c r="AC167" s="27"/>
+      <c r="AD167" s="27"/>
+      <c r="AE167" s="27"/>
+      <c r="AF167" s="27"/>
+      <c r="AG167" s="27"/>
+      <c r="AH167" s="27"/>
+      <c r="AI167" s="27"/>
+      <c r="AJ167" s="27"/>
+      <c r="AK167" s="27"/>
+      <c r="AL167" s="27"/>
+      <c r="AM167" s="27"/>
+      <c r="AN167" s="27"/>
+    </row>
+    <row r="168" spans="1:40">
+      <c r="A168" s="27"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="27"/>
+      <c r="L168" s="27"/>
+      <c r="M168" s="27"/>
+      <c r="N168" s="27"/>
+      <c r="O168" s="27"/>
+      <c r="P168" s="27"/>
+      <c r="Q168" s="27"/>
+      <c r="R168" s="27"/>
+      <c r="S168" s="27"/>
+      <c r="T168" s="27"/>
+      <c r="U168" s="27"/>
+      <c r="V168" s="27"/>
+      <c r="W168" s="27"/>
+      <c r="X168" s="27"/>
+      <c r="Y168" s="27"/>
+      <c r="Z168" s="27"/>
+      <c r="AA168" s="27"/>
+      <c r="AB168" s="27"/>
+      <c r="AC168" s="27"/>
+      <c r="AD168" s="27"/>
+      <c r="AE168" s="27"/>
+      <c r="AF168" s="27"/>
+      <c r="AG168" s="27"/>
+      <c r="AH168" s="27"/>
+      <c r="AI168" s="27"/>
+      <c r="AJ168" s="27"/>
+      <c r="AK168" s="27"/>
+      <c r="AL168" s="27"/>
+      <c r="AM168" s="27"/>
+      <c r="AN168" s="27"/>
+    </row>
+    <row r="169" spans="1:40">
+      <c r="A169" s="27"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="27"/>
+      <c r="K169" s="27"/>
+      <c r="L169" s="27"/>
+      <c r="M169" s="27"/>
+      <c r="N169" s="27"/>
+      <c r="O169" s="27"/>
+      <c r="P169" s="27"/>
+      <c r="Q169" s="27"/>
+      <c r="R169" s="27"/>
+      <c r="S169" s="27"/>
+      <c r="T169" s="27"/>
+      <c r="U169" s="27"/>
+      <c r="V169" s="27"/>
+      <c r="W169" s="27"/>
+      <c r="X169" s="27"/>
+      <c r="Y169" s="27"/>
+      <c r="Z169" s="27"/>
+      <c r="AA169" s="27"/>
+      <c r="AB169" s="27"/>
+      <c r="AC169" s="27"/>
+      <c r="AD169" s="27"/>
+      <c r="AE169" s="27"/>
+      <c r="AF169" s="27"/>
+      <c r="AG169" s="27"/>
+      <c r="AH169" s="27"/>
+      <c r="AI169" s="27"/>
+      <c r="AJ169" s="27"/>
+      <c r="AK169" s="27"/>
+      <c r="AL169" s="27"/>
+      <c r="AM169" s="27"/>
+      <c r="AN169" s="27"/>
+    </row>
+    <row r="170" spans="1:40">
+      <c r="A170" s="27"/>
+      <c r="B170" s="27"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="27"/>
+      <c r="K170" s="27"/>
+      <c r="L170" s="27"/>
+      <c r="M170" s="27"/>
+      <c r="N170" s="27"/>
+      <c r="O170" s="27"/>
+      <c r="P170" s="27"/>
+      <c r="Q170" s="27"/>
+      <c r="R170" s="27"/>
+      <c r="S170" s="27"/>
+      <c r="T170" s="27"/>
+      <c r="U170" s="27"/>
+      <c r="V170" s="27"/>
+      <c r="W170" s="27"/>
+      <c r="X170" s="27"/>
+      <c r="Y170" s="27"/>
+      <c r="Z170" s="27"/>
+      <c r="AA170" s="27"/>
+      <c r="AB170" s="27"/>
+      <c r="AC170" s="27"/>
+      <c r="AD170" s="27"/>
+      <c r="AE170" s="27"/>
+      <c r="AF170" s="27"/>
+      <c r="AG170" s="27"/>
+      <c r="AH170" s="27"/>
+      <c r="AI170" s="27"/>
+      <c r="AJ170" s="27"/>
+      <c r="AK170" s="27"/>
+      <c r="AL170" s="27"/>
+      <c r="AM170" s="27"/>
+      <c r="AN170" s="27"/>
+    </row>
+    <row r="171" spans="1:40">
+      <c r="A171" s="27"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="27"/>
+      <c r="K171" s="27"/>
+      <c r="L171" s="27"/>
+      <c r="M171" s="27"/>
+      <c r="N171" s="27"/>
+      <c r="O171" s="27"/>
+      <c r="P171" s="27"/>
+      <c r="Q171" s="27"/>
+      <c r="R171" s="27"/>
+      <c r="S171" s="27"/>
+      <c r="T171" s="27"/>
+      <c r="U171" s="27"/>
+      <c r="V171" s="27"/>
+      <c r="W171" s="27"/>
+      <c r="X171" s="27"/>
+      <c r="Y171" s="27"/>
+      <c r="Z171" s="27"/>
+      <c r="AA171" s="27"/>
+      <c r="AB171" s="27"/>
+      <c r="AC171" s="27"/>
+      <c r="AD171" s="27"/>
+      <c r="AE171" s="27"/>
+      <c r="AF171" s="27"/>
+      <c r="AG171" s="27"/>
+      <c r="AH171" s="27"/>
+      <c r="AI171" s="27"/>
+      <c r="AJ171" s="27"/>
+      <c r="AK171" s="27"/>
+      <c r="AL171" s="27"/>
+      <c r="AM171" s="27"/>
+      <c r="AN171" s="27"/>
+    </row>
+    <row r="172" spans="1:40">
+      <c r="A172" s="27"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="27"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="27"/>
+      <c r="K172" s="27"/>
+      <c r="L172" s="27"/>
+      <c r="M172" s="27"/>
+      <c r="N172" s="27"/>
+      <c r="O172" s="27"/>
+      <c r="P172" s="27"/>
+      <c r="Q172" s="27"/>
+      <c r="R172" s="27"/>
+      <c r="S172" s="27"/>
+      <c r="T172" s="27"/>
+      <c r="U172" s="27"/>
+      <c r="V172" s="27"/>
+      <c r="W172" s="27"/>
+      <c r="X172" s="27"/>
+      <c r="Y172" s="27"/>
+      <c r="Z172" s="27"/>
+      <c r="AA172" s="27"/>
+      <c r="AB172" s="27"/>
+      <c r="AC172" s="27"/>
+      <c r="AD172" s="27"/>
+      <c r="AE172" s="27"/>
+      <c r="AF172" s="27"/>
+      <c r="AG172" s="27"/>
+      <c r="AH172" s="27"/>
+      <c r="AI172" s="27"/>
+      <c r="AJ172" s="27"/>
+      <c r="AK172" s="27"/>
+      <c r="AL172" s="27"/>
+      <c r="AM172" s="27"/>
+      <c r="AN172" s="27"/>
+    </row>
+    <row r="173" spans="1:40">
+      <c r="A173" s="27"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
+      <c r="K173" s="27"/>
+      <c r="L173" s="27"/>
+      <c r="M173" s="27"/>
+      <c r="N173" s="27"/>
+      <c r="O173" s="27"/>
+      <c r="P173" s="27"/>
+      <c r="Q173" s="27"/>
+      <c r="R173" s="27"/>
+      <c r="S173" s="27"/>
+      <c r="T173" s="27"/>
+      <c r="U173" s="27"/>
+      <c r="V173" s="27"/>
+      <c r="W173" s="27"/>
+      <c r="X173" s="27"/>
+      <c r="Y173" s="27"/>
+      <c r="Z173" s="27"/>
+      <c r="AA173" s="27"/>
+      <c r="AB173" s="27"/>
+      <c r="AC173" s="27"/>
+      <c r="AD173" s="27"/>
+      <c r="AE173" s="27"/>
+      <c r="AF173" s="27"/>
+      <c r="AG173" s="27"/>
+      <c r="AH173" s="27"/>
+      <c r="AI173" s="27"/>
+      <c r="AJ173" s="27"/>
+      <c r="AK173" s="27"/>
+      <c r="AL173" s="27"/>
+      <c r="AM173" s="27"/>
+      <c r="AN173" s="27"/>
+    </row>
+    <row r="174" spans="1:40">
+      <c r="A174" s="27"/>
+      <c r="B174" s="27"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="27"/>
+      <c r="K174" s="27"/>
+      <c r="L174" s="27"/>
+      <c r="M174" s="27"/>
+      <c r="N174" s="27"/>
+      <c r="O174" s="27"/>
+      <c r="P174" s="27"/>
+      <c r="Q174" s="27"/>
+      <c r="R174" s="27"/>
+      <c r="S174" s="27"/>
+      <c r="T174" s="27"/>
+      <c r="U174" s="27"/>
+      <c r="V174" s="27"/>
+      <c r="W174" s="27"/>
+      <c r="X174" s="27"/>
+      <c r="Y174" s="27"/>
+      <c r="Z174" s="27"/>
+      <c r="AA174" s="27"/>
+      <c r="AB174" s="27"/>
+      <c r="AC174" s="27"/>
+      <c r="AD174" s="27"/>
+      <c r="AE174" s="27"/>
+      <c r="AF174" s="27"/>
+      <c r="AG174" s="27"/>
+      <c r="AH174" s="27"/>
+      <c r="AI174" s="27"/>
+      <c r="AJ174" s="27"/>
+      <c r="AK174" s="27"/>
+      <c r="AL174" s="27"/>
+      <c r="AM174" s="27"/>
+      <c r="AN174" s="27"/>
+    </row>
+    <row r="175" spans="1:40">
+      <c r="A175" s="27"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="27"/>
+      <c r="J175" s="27"/>
+      <c r="K175" s="27"/>
+      <c r="L175" s="27"/>
+      <c r="M175" s="27"/>
+      <c r="N175" s="27"/>
+      <c r="O175" s="27"/>
+      <c r="P175" s="27"/>
+      <c r="Q175" s="27"/>
+      <c r="R175" s="27"/>
+      <c r="S175" s="27"/>
+      <c r="T175" s="27"/>
+      <c r="U175" s="27"/>
+      <c r="V175" s="27"/>
+      <c r="W175" s="27"/>
+      <c r="X175" s="27"/>
+      <c r="Y175" s="27"/>
+      <c r="Z175" s="27"/>
+      <c r="AA175" s="27"/>
+      <c r="AB175" s="27"/>
+      <c r="AC175" s="27"/>
+      <c r="AD175" s="27"/>
+      <c r="AE175" s="27"/>
+      <c r="AF175" s="27"/>
+      <c r="AG175" s="27"/>
+      <c r="AH175" s="27"/>
+      <c r="AI175" s="27"/>
+      <c r="AJ175" s="27"/>
+      <c r="AK175" s="27"/>
+      <c r="AL175" s="27"/>
+      <c r="AM175" s="27"/>
+      <c r="AN175" s="27"/>
+    </row>
+    <row r="176" spans="1:40">
+      <c r="A176" s="27"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="27"/>
+      <c r="J176" s="27"/>
+      <c r="K176" s="27"/>
+      <c r="L176" s="27"/>
+      <c r="M176" s="27"/>
+      <c r="N176" s="27"/>
+      <c r="O176" s="27"/>
+      <c r="P176" s="27"/>
+      <c r="Q176" s="27"/>
+      <c r="R176" s="27"/>
+      <c r="S176" s="27"/>
+      <c r="T176" s="27"/>
+      <c r="U176" s="27"/>
+      <c r="V176" s="27"/>
+      <c r="W176" s="27"/>
+      <c r="X176" s="27"/>
+      <c r="Y176" s="27"/>
+      <c r="Z176" s="27"/>
+      <c r="AA176" s="27"/>
+      <c r="AB176" s="27"/>
+      <c r="AC176" s="27"/>
+      <c r="AD176" s="27"/>
+      <c r="AE176" s="27"/>
+      <c r="AF176" s="27"/>
+      <c r="AG176" s="27"/>
+      <c r="AH176" s="27"/>
+      <c r="AI176" s="27"/>
+      <c r="AJ176" s="27"/>
+      <c r="AK176" s="27"/>
+      <c r="AL176" s="27"/>
+      <c r="AM176" s="27"/>
+      <c r="AN176" s="27"/>
+    </row>
+    <row r="177" spans="1:40">
+      <c r="A177" s="27"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
+      <c r="K177" s="27"/>
+      <c r="L177" s="27"/>
+      <c r="M177" s="27"/>
+      <c r="N177" s="27"/>
+      <c r="O177" s="27"/>
+      <c r="P177" s="27"/>
+      <c r="Q177" s="27"/>
+      <c r="R177" s="27"/>
+      <c r="S177" s="27"/>
+      <c r="T177" s="27"/>
+      <c r="U177" s="27"/>
+      <c r="V177" s="27"/>
+      <c r="W177" s="27"/>
+      <c r="X177" s="27"/>
+      <c r="Y177" s="27"/>
+      <c r="Z177" s="27"/>
+      <c r="AA177" s="27"/>
+      <c r="AB177" s="27"/>
+      <c r="AC177" s="27"/>
+      <c r="AD177" s="27"/>
+      <c r="AE177" s="27"/>
+      <c r="AF177" s="27"/>
+      <c r="AG177" s="27"/>
+      <c r="AH177" s="27"/>
+      <c r="AI177" s="27"/>
+      <c r="AJ177" s="27"/>
+      <c r="AK177" s="27"/>
+      <c r="AL177" s="27"/>
+      <c r="AM177" s="27"/>
+      <c r="AN177" s="27"/>
+    </row>
+    <row r="178" spans="1:40">
+      <c r="A178" s="27"/>
+      <c r="B178" s="27"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="27"/>
+      <c r="K178" s="27"/>
+      <c r="L178" s="27"/>
+      <c r="M178" s="27"/>
+      <c r="N178" s="27"/>
+      <c r="O178" s="27"/>
+      <c r="P178" s="27"/>
+      <c r="Q178" s="27"/>
+      <c r="R178" s="27"/>
+      <c r="S178" s="27"/>
+      <c r="T178" s="27"/>
+      <c r="U178" s="27"/>
+      <c r="V178" s="27"/>
+      <c r="W178" s="27"/>
+      <c r="X178" s="27"/>
+      <c r="Y178" s="27"/>
+      <c r="Z178" s="27"/>
+      <c r="AA178" s="27"/>
+      <c r="AB178" s="27"/>
+      <c r="AC178" s="27"/>
+      <c r="AD178" s="27"/>
+      <c r="AE178" s="27"/>
+      <c r="AF178" s="27"/>
+      <c r="AG178" s="27"/>
+      <c r="AH178" s="27"/>
+      <c r="AI178" s="27"/>
+      <c r="AJ178" s="27"/>
+      <c r="AK178" s="27"/>
+      <c r="AL178" s="27"/>
+      <c r="AM178" s="27"/>
+      <c r="AN178" s="27"/>
+    </row>
+    <row r="179" spans="1:40">
+      <c r="A179" s="27"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="27"/>
+      <c r="K179" s="27"/>
+      <c r="L179" s="27"/>
+      <c r="M179" s="27"/>
+      <c r="N179" s="27"/>
+      <c r="O179" s="27"/>
+      <c r="P179" s="27"/>
+      <c r="Q179" s="27"/>
+      <c r="R179" s="27"/>
+      <c r="S179" s="27"/>
+      <c r="T179" s="27"/>
+      <c r="U179" s="27"/>
+      <c r="V179" s="27"/>
+      <c r="W179" s="27"/>
+      <c r="X179" s="27"/>
+      <c r="Y179" s="27"/>
+      <c r="Z179" s="27"/>
+      <c r="AA179" s="27"/>
+      <c r="AB179" s="27"/>
+      <c r="AC179" s="27"/>
+      <c r="AD179" s="27"/>
+      <c r="AE179" s="27"/>
+      <c r="AF179" s="27"/>
+      <c r="AG179" s="27"/>
+      <c r="AH179" s="27"/>
+      <c r="AI179" s="27"/>
+      <c r="AJ179" s="27"/>
+      <c r="AK179" s="27"/>
+      <c r="AL179" s="27"/>
+      <c r="AM179" s="27"/>
+      <c r="AN179" s="27"/>
+    </row>
+    <row r="180" spans="1:40">
+      <c r="A180" s="27"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
+      <c r="K180" s="27"/>
+      <c r="L180" s="27"/>
+      <c r="M180" s="27"/>
+      <c r="N180" s="27"/>
+      <c r="O180" s="27"/>
+      <c r="P180" s="27"/>
+      <c r="Q180" s="27"/>
+      <c r="R180" s="27"/>
+      <c r="S180" s="27"/>
+      <c r="T180" s="27"/>
+      <c r="U180" s="27"/>
+      <c r="V180" s="27"/>
+      <c r="W180" s="27"/>
+      <c r="X180" s="27"/>
+      <c r="Y180" s="27"/>
+      <c r="Z180" s="27"/>
+      <c r="AA180" s="27"/>
+      <c r="AB180" s="27"/>
+      <c r="AC180" s="27"/>
+      <c r="AD180" s="27"/>
+      <c r="AE180" s="27"/>
+      <c r="AF180" s="27"/>
+      <c r="AG180" s="27"/>
+      <c r="AH180" s="27"/>
+      <c r="AI180" s="27"/>
+      <c r="AJ180" s="27"/>
+      <c r="AK180" s="27"/>
+      <c r="AL180" s="27"/>
+      <c r="AM180" s="27"/>
+      <c r="AN180" s="27"/>
+    </row>
+    <row r="181" spans="1:40">
+      <c r="A181" s="27"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="27"/>
+      <c r="K181" s="27"/>
+      <c r="L181" s="27"/>
+      <c r="M181" s="27"/>
+      <c r="N181" s="27"/>
+      <c r="O181" s="27"/>
+      <c r="P181" s="27"/>
+      <c r="Q181" s="27"/>
+      <c r="R181" s="27"/>
+      <c r="S181" s="27"/>
+      <c r="T181" s="27"/>
+      <c r="U181" s="27"/>
+      <c r="V181" s="27"/>
+      <c r="W181" s="27"/>
+      <c r="X181" s="27"/>
+      <c r="Y181" s="27"/>
+      <c r="Z181" s="27"/>
+      <c r="AA181" s="27"/>
+      <c r="AB181" s="27"/>
+      <c r="AC181" s="27"/>
+      <c r="AD181" s="27"/>
+      <c r="AE181" s="27"/>
+      <c r="AF181" s="27"/>
+      <c r="AG181" s="27"/>
+      <c r="AH181" s="27"/>
+      <c r="AI181" s="27"/>
+      <c r="AJ181" s="27"/>
+      <c r="AK181" s="27"/>
+      <c r="AL181" s="27"/>
+      <c r="AM181" s="27"/>
+      <c r="AN181" s="27"/>
+    </row>
+    <row r="182" spans="1:40">
+      <c r="A182" s="27"/>
+      <c r="B182" s="27"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="27"/>
+      <c r="K182" s="27"/>
+      <c r="L182" s="27"/>
+      <c r="M182" s="27"/>
+      <c r="N182" s="27"/>
+      <c r="O182" s="27"/>
+      <c r="P182" s="27"/>
+      <c r="Q182" s="27"/>
+      <c r="R182" s="27"/>
+      <c r="S182" s="27"/>
+      <c r="T182" s="27"/>
+      <c r="U182" s="27"/>
+      <c r="V182" s="27"/>
+      <c r="W182" s="27"/>
+      <c r="X182" s="27"/>
+      <c r="Y182" s="27"/>
+      <c r="Z182" s="27"/>
+      <c r="AA182" s="27"/>
+      <c r="AB182" s="27"/>
+      <c r="AC182" s="27"/>
+      <c r="AD182" s="27"/>
+      <c r="AE182" s="27"/>
+      <c r="AF182" s="27"/>
+      <c r="AG182" s="27"/>
+      <c r="AH182" s="27"/>
+      <c r="AI182" s="27"/>
+      <c r="AJ182" s="27"/>
+      <c r="AK182" s="27"/>
+      <c r="AL182" s="27"/>
+      <c r="AM182" s="27"/>
+      <c r="AN182" s="27"/>
+    </row>
+    <row r="183" spans="1:40">
+      <c r="A183" s="27"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="27"/>
+      <c r="K183" s="27"/>
+      <c r="L183" s="27"/>
+      <c r="M183" s="27"/>
+      <c r="N183" s="27"/>
+      <c r="O183" s="27"/>
+      <c r="P183" s="27"/>
+      <c r="Q183" s="27"/>
+      <c r="R183" s="27"/>
+      <c r="S183" s="27"/>
+      <c r="T183" s="27"/>
+      <c r="U183" s="27"/>
+      <c r="V183" s="27"/>
+      <c r="W183" s="27"/>
+      <c r="X183" s="27"/>
+      <c r="Y183" s="27"/>
+      <c r="Z183" s="27"/>
+      <c r="AA183" s="27"/>
+      <c r="AB183" s="27"/>
+      <c r="AC183" s="27"/>
+      <c r="AD183" s="27"/>
+      <c r="AE183" s="27"/>
+      <c r="AF183" s="27"/>
+      <c r="AG183" s="27"/>
+      <c r="AH183" s="27"/>
+      <c r="AI183" s="27"/>
+      <c r="AJ183" s="27"/>
+      <c r="AK183" s="27"/>
+      <c r="AL183" s="27"/>
+      <c r="AM183" s="27"/>
+      <c r="AN183" s="27"/>
+    </row>
+    <row r="184" spans="1:40">
+      <c r="A184" s="27"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="27"/>
+      <c r="K184" s="27"/>
+      <c r="L184" s="27"/>
+      <c r="M184" s="27"/>
+      <c r="N184" s="27"/>
+      <c r="O184" s="27"/>
+      <c r="P184" s="27"/>
+      <c r="Q184" s="27"/>
+      <c r="R184" s="27"/>
+      <c r="S184" s="27"/>
+      <c r="T184" s="27"/>
+      <c r="U184" s="27"/>
+      <c r="V184" s="27"/>
+      <c r="W184" s="27"/>
+      <c r="X184" s="27"/>
+      <c r="Y184" s="27"/>
+      <c r="Z184" s="27"/>
+      <c r="AA184" s="27"/>
+      <c r="AB184" s="27"/>
+      <c r="AC184" s="27"/>
+      <c r="AD184" s="27"/>
+      <c r="AE184" s="27"/>
+      <c r="AF184" s="27"/>
+      <c r="AG184" s="27"/>
+      <c r="AH184" s="27"/>
+      <c r="AI184" s="27"/>
+      <c r="AJ184" s="27"/>
+      <c r="AK184" s="27"/>
+      <c r="AL184" s="27"/>
+      <c r="AM184" s="27"/>
+      <c r="AN184" s="27"/>
+    </row>
+    <row r="185" spans="1:40">
+      <c r="A185" s="27"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="27"/>
+      <c r="K185" s="27"/>
+      <c r="L185" s="27"/>
+      <c r="M185" s="27"/>
+      <c r="N185" s="27"/>
+      <c r="O185" s="27"/>
+      <c r="P185" s="27"/>
+      <c r="Q185" s="27"/>
+      <c r="R185" s="27"/>
+      <c r="S185" s="27"/>
+      <c r="T185" s="27"/>
+      <c r="U185" s="27"/>
+      <c r="V185" s="27"/>
+      <c r="W185" s="27"/>
+      <c r="X185" s="27"/>
+      <c r="Y185" s="27"/>
+      <c r="Z185" s="27"/>
+      <c r="AA185" s="27"/>
+      <c r="AB185" s="27"/>
+      <c r="AC185" s="27"/>
+      <c r="AD185" s="27"/>
+      <c r="AE185" s="27"/>
+      <c r="AF185" s="27"/>
+      <c r="AG185" s="27"/>
+      <c r="AH185" s="27"/>
+      <c r="AI185" s="27"/>
+      <c r="AJ185" s="27"/>
+      <c r="AK185" s="27"/>
+      <c r="AL185" s="27"/>
+      <c r="AM185" s="27"/>
+      <c r="AN185" s="27"/>
+    </row>
+    <row r="186" spans="1:40">
+      <c r="A186" s="27"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="27"/>
+      <c r="K186" s="27"/>
+      <c r="L186" s="27"/>
+      <c r="M186" s="27"/>
+      <c r="N186" s="27"/>
+      <c r="O186" s="27"/>
+      <c r="P186" s="27"/>
+      <c r="Q186" s="27"/>
+      <c r="R186" s="27"/>
+      <c r="S186" s="27"/>
+      <c r="T186" s="27"/>
+      <c r="U186" s="27"/>
+      <c r="V186" s="27"/>
+      <c r="W186" s="27"/>
+      <c r="X186" s="27"/>
+      <c r="Y186" s="27"/>
+      <c r="Z186" s="27"/>
+      <c r="AA186" s="27"/>
+      <c r="AB186" s="27"/>
+      <c r="AC186" s="27"/>
+      <c r="AD186" s="27"/>
+      <c r="AE186" s="27"/>
+      <c r="AF186" s="27"/>
+      <c r="AG186" s="27"/>
+      <c r="AH186" s="27"/>
+      <c r="AI186" s="27"/>
+      <c r="AJ186" s="27"/>
+      <c r="AK186" s="27"/>
+      <c r="AL186" s="27"/>
+      <c r="AM186" s="27"/>
+      <c r="AN186" s="27"/>
+    </row>
+    <row r="187" spans="1:40">
+      <c r="A187" s="27"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="27"/>
+      <c r="K187" s="27"/>
+      <c r="L187" s="27"/>
+      <c r="M187" s="27"/>
+      <c r="N187" s="27"/>
+      <c r="O187" s="27"/>
+      <c r="P187" s="27"/>
+      <c r="Q187" s="27"/>
+      <c r="R187" s="27"/>
+      <c r="S187" s="27"/>
+      <c r="T187" s="27"/>
+      <c r="U187" s="27"/>
+      <c r="V187" s="27"/>
+      <c r="W187" s="27"/>
+      <c r="X187" s="27"/>
+      <c r="Y187" s="27"/>
+      <c r="Z187" s="27"/>
+      <c r="AA187" s="27"/>
+      <c r="AB187" s="27"/>
+      <c r="AC187" s="27"/>
+      <c r="AD187" s="27"/>
+      <c r="AE187" s="27"/>
+      <c r="AF187" s="27"/>
+      <c r="AG187" s="27"/>
+      <c r="AH187" s="27"/>
+      <c r="AI187" s="27"/>
+      <c r="AJ187" s="27"/>
+      <c r="AK187" s="27"/>
+      <c r="AL187" s="27"/>
+      <c r="AM187" s="27"/>
+      <c r="AN187" s="27"/>
+    </row>
+    <row r="188" spans="1:40">
+      <c r="A188" s="27"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="27"/>
+      <c r="K188" s="27"/>
+      <c r="L188" s="27"/>
+      <c r="M188" s="27"/>
+      <c r="N188" s="27"/>
+      <c r="O188" s="27"/>
+      <c r="P188" s="27"/>
+      <c r="Q188" s="27"/>
+      <c r="R188" s="27"/>
+      <c r="S188" s="27"/>
+      <c r="T188" s="27"/>
+      <c r="U188" s="27"/>
+      <c r="V188" s="27"/>
+      <c r="W188" s="27"/>
+      <c r="X188" s="27"/>
+      <c r="Y188" s="27"/>
+      <c r="Z188" s="27"/>
+      <c r="AA188" s="27"/>
+      <c r="AB188" s="27"/>
+      <c r="AC188" s="27"/>
+      <c r="AD188" s="27"/>
+      <c r="AE188" s="27"/>
+      <c r="AF188" s="27"/>
+      <c r="AG188" s="27"/>
+      <c r="AH188" s="27"/>
+      <c r="AI188" s="27"/>
+      <c r="AJ188" s="27"/>
+      <c r="AK188" s="27"/>
+      <c r="AL188" s="27"/>
+      <c r="AM188" s="27"/>
+      <c r="AN188" s="27"/>
+    </row>
+    <row r="189" spans="1:40">
+      <c r="A189" s="27"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="27"/>
+      <c r="K189" s="27"/>
+      <c r="L189" s="27"/>
+      <c r="M189" s="27"/>
+      <c r="N189" s="27"/>
+      <c r="O189" s="27"/>
+      <c r="P189" s="27"/>
+      <c r="Q189" s="27"/>
+      <c r="R189" s="27"/>
+      <c r="S189" s="27"/>
+      <c r="T189" s="27"/>
+      <c r="U189" s="27"/>
+      <c r="V189" s="27"/>
+      <c r="W189" s="27"/>
+      <c r="X189" s="27"/>
+      <c r="Y189" s="27"/>
+      <c r="Z189" s="27"/>
+      <c r="AA189" s="27"/>
+      <c r="AB189" s="27"/>
+      <c r="AC189" s="27"/>
+      <c r="AD189" s="27"/>
+      <c r="AE189" s="27"/>
+      <c r="AF189" s="27"/>
+      <c r="AG189" s="27"/>
+      <c r="AH189" s="27"/>
+      <c r="AI189" s="27"/>
+      <c r="AJ189" s="27"/>
+      <c r="AK189" s="27"/>
+      <c r="AL189" s="27"/>
+      <c r="AM189" s="27"/>
+      <c r="AN189" s="27"/>
+    </row>
+    <row r="190" spans="1:40">
+      <c r="A190" s="27"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="27"/>
+      <c r="K190" s="27"/>
+      <c r="L190" s="27"/>
+      <c r="M190" s="27"/>
+      <c r="N190" s="27"/>
+      <c r="O190" s="27"/>
+      <c r="P190" s="27"/>
+      <c r="Q190" s="27"/>
+      <c r="R190" s="27"/>
+      <c r="S190" s="27"/>
+      <c r="T190" s="27"/>
+      <c r="U190" s="27"/>
+      <c r="V190" s="27"/>
+      <c r="W190" s="27"/>
+      <c r="X190" s="27"/>
+      <c r="Y190" s="27"/>
+      <c r="Z190" s="27"/>
+      <c r="AA190" s="27"/>
+      <c r="AB190" s="27"/>
+      <c r="AC190" s="27"/>
+      <c r="AD190" s="27"/>
+      <c r="AE190" s="27"/>
+      <c r="AF190" s="27"/>
+      <c r="AG190" s="27"/>
+      <c r="AH190" s="27"/>
+      <c r="AI190" s="27"/>
+      <c r="AJ190" s="27"/>
+      <c r="AK190" s="27"/>
+      <c r="AL190" s="27"/>
+      <c r="AM190" s="27"/>
+      <c r="AN190" s="27"/>
+    </row>
+    <row r="191" spans="1:40">
+      <c r="A191" s="27"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="27"/>
+      <c r="K191" s="27"/>
+      <c r="L191" s="27"/>
+      <c r="M191" s="27"/>
+      <c r="N191" s="27"/>
+      <c r="O191" s="27"/>
+      <c r="P191" s="27"/>
+      <c r="Q191" s="27"/>
+      <c r="R191" s="27"/>
+      <c r="S191" s="27"/>
+      <c r="T191" s="27"/>
+      <c r="U191" s="27"/>
+      <c r="V191" s="27"/>
+      <c r="W191" s="27"/>
+      <c r="X191" s="27"/>
+      <c r="Y191" s="27"/>
+      <c r="Z191" s="27"/>
+      <c r="AA191" s="27"/>
+      <c r="AB191" s="27"/>
+      <c r="AC191" s="27"/>
+      <c r="AD191" s="27"/>
+      <c r="AE191" s="27"/>
+      <c r="AF191" s="27"/>
+      <c r="AG191" s="27"/>
+      <c r="AH191" s="27"/>
+      <c r="AI191" s="27"/>
+      <c r="AJ191" s="27"/>
+      <c r="AK191" s="27"/>
+      <c r="AL191" s="27"/>
+      <c r="AM191" s="27"/>
+      <c r="AN191" s="27"/>
+    </row>
+    <row r="192" spans="1:40">
+      <c r="A192" s="27"/>
+      <c r="B192" s="27"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="27"/>
+      <c r="K192" s="27"/>
+      <c r="L192" s="27"/>
+      <c r="M192" s="27"/>
+      <c r="N192" s="27"/>
+      <c r="O192" s="27"/>
+      <c r="P192" s="27"/>
+      <c r="Q192" s="27"/>
+      <c r="R192" s="27"/>
+      <c r="S192" s="27"/>
+      <c r="T192" s="27"/>
+      <c r="U192" s="27"/>
+      <c r="V192" s="27"/>
+      <c r="W192" s="27"/>
+      <c r="X192" s="27"/>
+      <c r="Y192" s="27"/>
+      <c r="Z192" s="27"/>
+      <c r="AA192" s="27"/>
+      <c r="AB192" s="27"/>
+      <c r="AC192" s="27"/>
+      <c r="AD192" s="27"/>
+      <c r="AE192" s="27"/>
+      <c r="AF192" s="27"/>
+      <c r="AG192" s="27"/>
+      <c r="AH192" s="27"/>
+      <c r="AI192" s="27"/>
+      <c r="AJ192" s="27"/>
+      <c r="AK192" s="27"/>
+      <c r="AL192" s="27"/>
+      <c r="AM192" s="27"/>
+      <c r="AN192" s="27"/>
+    </row>
+    <row r="193" spans="1:40">
+      <c r="A193" s="27"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="27"/>
+      <c r="K193" s="27"/>
+      <c r="L193" s="27"/>
+      <c r="M193" s="27"/>
+      <c r="N193" s="27"/>
+      <c r="O193" s="27"/>
+      <c r="P193" s="27"/>
+      <c r="Q193" s="27"/>
+      <c r="R193" s="27"/>
+      <c r="S193" s="27"/>
+      <c r="T193" s="27"/>
+      <c r="U193" s="27"/>
+      <c r="V193" s="27"/>
+      <c r="W193" s="27"/>
+      <c r="X193" s="27"/>
+      <c r="Y193" s="27"/>
+      <c r="Z193" s="27"/>
+      <c r="AA193" s="27"/>
+      <c r="AB193" s="27"/>
+      <c r="AC193" s="27"/>
+      <c r="AD193" s="27"/>
+      <c r="AE193" s="27"/>
+      <c r="AF193" s="27"/>
+      <c r="AG193" s="27"/>
+      <c r="AH193" s="27"/>
+      <c r="AI193" s="27"/>
+      <c r="AJ193" s="27"/>
+      <c r="AK193" s="27"/>
+      <c r="AL193" s="27"/>
+      <c r="AM193" s="27"/>
+      <c r="AN193" s="27"/>
+    </row>
+    <row r="194" spans="1:40">
+      <c r="A194" s="27"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="27"/>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="27"/>
+      <c r="K194" s="27"/>
+      <c r="L194" s="27"/>
+      <c r="M194" s="27"/>
+      <c r="N194" s="27"/>
+      <c r="O194" s="27"/>
+      <c r="P194" s="27"/>
+      <c r="Q194" s="27"/>
+      <c r="R194" s="27"/>
+      <c r="S194" s="27"/>
+      <c r="T194" s="27"/>
+      <c r="U194" s="27"/>
+      <c r="V194" s="27"/>
+      <c r="W194" s="27"/>
+      <c r="X194" s="27"/>
+      <c r="Y194" s="27"/>
+      <c r="Z194" s="27"/>
+      <c r="AA194" s="27"/>
+      <c r="AB194" s="27"/>
+      <c r="AC194" s="27"/>
+      <c r="AD194" s="27"/>
+      <c r="AE194" s="27"/>
+      <c r="AF194" s="27"/>
+      <c r="AG194" s="27"/>
+      <c r="AH194" s="27"/>
+      <c r="AI194" s="27"/>
+      <c r="AJ194" s="27"/>
+      <c r="AK194" s="27"/>
+      <c r="AL194" s="27"/>
+      <c r="AM194" s="27"/>
+      <c r="AN194" s="27"/>
+    </row>
+    <row r="195" spans="1:40">
+      <c r="A195" s="27"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="27"/>
+      <c r="K195" s="27"/>
+      <c r="L195" s="27"/>
+      <c r="M195" s="27"/>
+      <c r="N195" s="27"/>
+      <c r="O195" s="27"/>
+      <c r="P195" s="27"/>
+      <c r="Q195" s="27"/>
+      <c r="R195" s="27"/>
+      <c r="S195" s="27"/>
+      <c r="T195" s="27"/>
+      <c r="U195" s="27"/>
+      <c r="V195" s="27"/>
+      <c r="W195" s="27"/>
+      <c r="X195" s="27"/>
+      <c r="Y195" s="27"/>
+      <c r="Z195" s="27"/>
+      <c r="AA195" s="27"/>
+      <c r="AB195" s="27"/>
+      <c r="AC195" s="27"/>
+      <c r="AD195" s="27"/>
+      <c r="AE195" s="27"/>
+      <c r="AF195" s="27"/>
+      <c r="AG195" s="27"/>
+      <c r="AH195" s="27"/>
+      <c r="AI195" s="27"/>
+      <c r="AJ195" s="27"/>
+      <c r="AK195" s="27"/>
+      <c r="AL195" s="27"/>
+      <c r="AM195" s="27"/>
+      <c r="AN195" s="27"/>
+    </row>
+    <row r="196" spans="1:40">
+      <c r="A196" s="27"/>
+      <c r="B196" s="27"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="27"/>
+      <c r="I196" s="27"/>
+      <c r="J196" s="27"/>
+      <c r="K196" s="27"/>
+      <c r="L196" s="27"/>
+      <c r="M196" s="27"/>
+      <c r="N196" s="27"/>
+      <c r="O196" s="27"/>
+      <c r="P196" s="27"/>
+      <c r="Q196" s="27"/>
+      <c r="R196" s="27"/>
+      <c r="S196" s="27"/>
+      <c r="T196" s="27"/>
+      <c r="U196" s="27"/>
+      <c r="V196" s="27"/>
+      <c r="W196" s="27"/>
+      <c r="X196" s="27"/>
+      <c r="Y196" s="27"/>
+      <c r="Z196" s="27"/>
+      <c r="AA196" s="27"/>
+      <c r="AB196" s="27"/>
+      <c r="AC196" s="27"/>
+      <c r="AD196" s="27"/>
+      <c r="AE196" s="27"/>
+      <c r="AF196" s="27"/>
+      <c r="AG196" s="27"/>
+      <c r="AH196" s="27"/>
+      <c r="AI196" s="27"/>
+      <c r="AJ196" s="27"/>
+      <c r="AK196" s="27"/>
+      <c r="AL196" s="27"/>
+      <c r="AM196" s="27"/>
+      <c r="AN196" s="27"/>
+    </row>
+    <row r="197" spans="1:40">
+      <c r="A197" s="27"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27"/>
+      <c r="G197" s="27"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="27"/>
+      <c r="J197" s="27"/>
+      <c r="K197" s="27"/>
+      <c r="L197" s="27"/>
+      <c r="M197" s="27"/>
+      <c r="N197" s="27"/>
+      <c r="O197" s="27"/>
+      <c r="P197" s="27"/>
+      <c r="Q197" s="27"/>
+      <c r="R197" s="27"/>
+      <c r="S197" s="27"/>
+      <c r="T197" s="27"/>
+      <c r="U197" s="27"/>
+      <c r="V197" s="27"/>
+      <c r="W197" s="27"/>
+      <c r="X197" s="27"/>
+      <c r="Y197" s="27"/>
+      <c r="Z197" s="27"/>
+      <c r="AA197" s="27"/>
+      <c r="AB197" s="27"/>
+      <c r="AC197" s="27"/>
+      <c r="AD197" s="27"/>
+      <c r="AE197" s="27"/>
+      <c r="AF197" s="27"/>
+      <c r="AG197" s="27"/>
+      <c r="AH197" s="27"/>
+      <c r="AI197" s="27"/>
+      <c r="AJ197" s="27"/>
+      <c r="AK197" s="27"/>
+      <c r="AL197" s="27"/>
+      <c r="AM197" s="27"/>
+      <c r="AN197" s="27"/>
+    </row>
+    <row r="198" spans="1:40">
+      <c r="A198" s="27"/>
+      <c r="B198" s="27"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27"/>
+      <c r="G198" s="27"/>
+      <c r="H198" s="27"/>
+      <c r="I198" s="27"/>
+      <c r="J198" s="27"/>
+      <c r="K198" s="27"/>
+      <c r="L198" s="27"/>
+      <c r="M198" s="27"/>
+      <c r="N198" s="27"/>
+      <c r="O198" s="27"/>
+      <c r="P198" s="27"/>
+      <c r="Q198" s="27"/>
+      <c r="R198" s="27"/>
+      <c r="S198" s="27"/>
+      <c r="T198" s="27"/>
+      <c r="U198" s="27"/>
+      <c r="V198" s="27"/>
+      <c r="W198" s="27"/>
+      <c r="X198" s="27"/>
+      <c r="Y198" s="27"/>
+      <c r="Z198" s="27"/>
+      <c r="AA198" s="27"/>
+      <c r="AB198" s="27"/>
+      <c r="AC198" s="27"/>
+      <c r="AD198" s="27"/>
+      <c r="AE198" s="27"/>
+      <c r="AF198" s="27"/>
+      <c r="AG198" s="27"/>
+      <c r="AH198" s="27"/>
+      <c r="AI198" s="27"/>
+      <c r="AJ198" s="27"/>
+      <c r="AK198" s="27"/>
+      <c r="AL198" s="27"/>
+      <c r="AM198" s="27"/>
+      <c r="AN198" s="27"/>
+    </row>
+    <row r="199" spans="1:40">
+      <c r="A199" s="27"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="27"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="27"/>
+      <c r="G199" s="27"/>
+      <c r="H199" s="27"/>
+      <c r="I199" s="27"/>
+      <c r="J199" s="27"/>
+      <c r="K199" s="27"/>
+      <c r="L199" s="27"/>
+      <c r="M199" s="27"/>
+      <c r="N199" s="27"/>
+      <c r="O199" s="27"/>
+      <c r="P199" s="27"/>
+      <c r="Q199" s="27"/>
+      <c r="R199" s="27"/>
+      <c r="S199" s="27"/>
+      <c r="T199" s="27"/>
+      <c r="U199" s="27"/>
+      <c r="V199" s="27"/>
+      <c r="W199" s="27"/>
+      <c r="X199" s="27"/>
+      <c r="Y199" s="27"/>
+      <c r="Z199" s="27"/>
+      <c r="AA199" s="27"/>
+      <c r="AB199" s="27"/>
+      <c r="AC199" s="27"/>
+      <c r="AD199" s="27"/>
+      <c r="AE199" s="27"/>
+      <c r="AF199" s="27"/>
+      <c r="AG199" s="27"/>
+      <c r="AH199" s="27"/>
+      <c r="AI199" s="27"/>
+      <c r="AJ199" s="27"/>
+      <c r="AK199" s="27"/>
+      <c r="AL199" s="27"/>
+      <c r="AM199" s="27"/>
+      <c r="AN199" s="27"/>
+    </row>
+    <row r="200" spans="1:40">
+      <c r="A200" s="27"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="27"/>
+      <c r="D200" s="27"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="27"/>
+      <c r="G200" s="27"/>
+      <c r="H200" s="27"/>
+      <c r="I200" s="27"/>
+      <c r="J200" s="27"/>
+      <c r="K200" s="27"/>
+      <c r="L200" s="27"/>
+      <c r="M200" s="27"/>
+      <c r="N200" s="27"/>
+      <c r="O200" s="27"/>
+      <c r="P200" s="27"/>
+      <c r="Q200" s="27"/>
+      <c r="R200" s="27"/>
+      <c r="S200" s="27"/>
+      <c r="T200" s="27"/>
+      <c r="U200" s="27"/>
+      <c r="V200" s="27"/>
+      <c r="W200" s="27"/>
+      <c r="X200" s="27"/>
+      <c r="Y200" s="27"/>
+      <c r="Z200" s="27"/>
+      <c r="AA200" s="27"/>
+      <c r="AB200" s="27"/>
+      <c r="AC200" s="27"/>
+      <c r="AD200" s="27"/>
+      <c r="AE200" s="27"/>
+      <c r="AF200" s="27"/>
+      <c r="AG200" s="27"/>
+      <c r="AH200" s="27"/>
+      <c r="AI200" s="27"/>
+      <c r="AJ200" s="27"/>
+      <c r="AK200" s="27"/>
+      <c r="AL200" s="27"/>
+      <c r="AM200" s="27"/>
+      <c r="AN200" s="27"/>
+    </row>
+    <row r="201" spans="1:40">
+      <c r="A201" s="27"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="27"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="27"/>
+      <c r="I201" s="27"/>
+      <c r="J201" s="27"/>
+      <c r="K201" s="27"/>
+      <c r="L201" s="27"/>
+      <c r="M201" s="27"/>
+      <c r="N201" s="27"/>
+      <c r="O201" s="27"/>
+      <c r="P201" s="27"/>
+      <c r="Q201" s="27"/>
+      <c r="R201" s="27"/>
+      <c r="S201" s="27"/>
+      <c r="T201" s="27"/>
+      <c r="U201" s="27"/>
+      <c r="V201" s="27"/>
+      <c r="W201" s="27"/>
+      <c r="X201" s="27"/>
+      <c r="Y201" s="27"/>
+      <c r="Z201" s="27"/>
+      <c r="AA201" s="27"/>
+      <c r="AB201" s="27"/>
+      <c r="AC201" s="27"/>
+      <c r="AD201" s="27"/>
+      <c r="AE201" s="27"/>
+      <c r="AF201" s="27"/>
+      <c r="AG201" s="27"/>
+      <c r="AH201" s="27"/>
+      <c r="AI201" s="27"/>
+      <c r="AJ201" s="27"/>
+      <c r="AK201" s="27"/>
+      <c r="AL201" s="27"/>
+      <c r="AM201" s="27"/>
+      <c r="AN201" s="27"/>
+    </row>
+    <row r="202" spans="1:40">
+      <c r="A202" s="27"/>
+      <c r="B202" s="27"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="27"/>
+      <c r="G202" s="27"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="27"/>
+      <c r="J202" s="27"/>
+      <c r="K202" s="27"/>
+      <c r="L202" s="27"/>
+      <c r="M202" s="27"/>
+      <c r="N202" s="27"/>
+      <c r="O202" s="27"/>
+      <c r="P202" s="27"/>
+      <c r="Q202" s="27"/>
+      <c r="R202" s="27"/>
+      <c r="S202" s="27"/>
+      <c r="T202" s="27"/>
+      <c r="U202" s="27"/>
+      <c r="V202" s="27"/>
+      <c r="W202" s="27"/>
+      <c r="X202" s="27"/>
+      <c r="Y202" s="27"/>
+      <c r="Z202" s="27"/>
+      <c r="AA202" s="27"/>
+      <c r="AB202" s="27"/>
+      <c r="AC202" s="27"/>
+      <c r="AD202" s="27"/>
+      <c r="AE202" s="27"/>
+      <c r="AF202" s="27"/>
+      <c r="AG202" s="27"/>
+      <c r="AH202" s="27"/>
+      <c r="AI202" s="27"/>
+      <c r="AJ202" s="27"/>
+      <c r="AK202" s="27"/>
+      <c r="AL202" s="27"/>
+      <c r="AM202" s="27"/>
+      <c r="AN202" s="27"/>
+    </row>
+    <row r="203" spans="1:40">
+      <c r="A203" s="27"/>
+      <c r="B203" s="27"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="27"/>
+      <c r="G203" s="27"/>
+      <c r="H203" s="27"/>
+      <c r="I203" s="27"/>
+      <c r="J203" s="27"/>
+      <c r="K203" s="27"/>
+      <c r="L203" s="27"/>
+      <c r="M203" s="27"/>
+      <c r="N203" s="27"/>
+      <c r="O203" s="27"/>
+      <c r="P203" s="27"/>
+      <c r="Q203" s="27"/>
+      <c r="R203" s="27"/>
+      <c r="S203" s="27"/>
+      <c r="T203" s="27"/>
+      <c r="U203" s="27"/>
+      <c r="V203" s="27"/>
+      <c r="W203" s="27"/>
+      <c r="X203" s="27"/>
+      <c r="Y203" s="27"/>
+      <c r="Z203" s="27"/>
+      <c r="AA203" s="27"/>
+      <c r="AB203" s="27"/>
+      <c r="AC203" s="27"/>
+      <c r="AD203" s="27"/>
+      <c r="AE203" s="27"/>
+      <c r="AF203" s="27"/>
+      <c r="AG203" s="27"/>
+      <c r="AH203" s="27"/>
+      <c r="AI203" s="27"/>
+      <c r="AJ203" s="27"/>
+      <c r="AK203" s="27"/>
+      <c r="AL203" s="27"/>
+      <c r="AM203" s="27"/>
+      <c r="AN203" s="27"/>
+    </row>
+    <row r="204" spans="1:40">
+      <c r="A204" s="27"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="27"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="27"/>
+      <c r="K204" s="27"/>
+      <c r="L204" s="27"/>
+      <c r="M204" s="27"/>
+      <c r="N204" s="27"/>
+      <c r="O204" s="27"/>
+      <c r="P204" s="27"/>
+      <c r="Q204" s="27"/>
+      <c r="R204" s="27"/>
+      <c r="S204" s="27"/>
+      <c r="T204" s="27"/>
+      <c r="U204" s="27"/>
+      <c r="V204" s="27"/>
+      <c r="W204" s="27"/>
+      <c r="X204" s="27"/>
+      <c r="Y204" s="27"/>
+      <c r="Z204" s="27"/>
+      <c r="AA204" s="27"/>
+      <c r="AB204" s="27"/>
+      <c r="AC204" s="27"/>
+      <c r="AD204" s="27"/>
+      <c r="AE204" s="27"/>
+      <c r="AF204" s="27"/>
+      <c r="AG204" s="27"/>
+      <c r="AH204" s="27"/>
+      <c r="AI204" s="27"/>
+      <c r="AJ204" s="27"/>
+      <c r="AK204" s="27"/>
+      <c r="AL204" s="27"/>
+      <c r="AM204" s="27"/>
+      <c r="AN204" s="27"/>
+    </row>
+    <row r="205" spans="1:40">
+      <c r="A205" s="27"/>
+      <c r="B205" s="27"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
+      <c r="F205" s="27"/>
+      <c r="G205" s="27"/>
+      <c r="H205" s="27"/>
+      <c r="I205" s="27"/>
+      <c r="J205" s="27"/>
+      <c r="K205" s="27"/>
+      <c r="L205" s="27"/>
+      <c r="M205" s="27"/>
+      <c r="N205" s="27"/>
+      <c r="O205" s="27"/>
+      <c r="P205" s="27"/>
+      <c r="Q205" s="27"/>
+      <c r="R205" s="27"/>
+      <c r="S205" s="27"/>
+      <c r="T205" s="27"/>
+      <c r="U205" s="27"/>
+      <c r="V205" s="27"/>
+      <c r="W205" s="27"/>
+      <c r="X205" s="27"/>
+      <c r="Y205" s="27"/>
+      <c r="Z205" s="27"/>
+      <c r="AA205" s="27"/>
+      <c r="AB205" s="27"/>
+      <c r="AC205" s="27"/>
+      <c r="AD205" s="27"/>
+      <c r="AE205" s="27"/>
+      <c r="AF205" s="27"/>
+      <c r="AG205" s="27"/>
+      <c r="AH205" s="27"/>
+      <c r="AI205" s="27"/>
+      <c r="AJ205" s="27"/>
+      <c r="AK205" s="27"/>
+      <c r="AL205" s="27"/>
+      <c r="AM205" s="27"/>
+      <c r="AN205" s="27"/>
+    </row>
+    <row r="206" spans="1:40">
+      <c r="A206" s="27"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="27"/>
+      <c r="G206" s="27"/>
+      <c r="H206" s="27"/>
+      <c r="I206" s="27"/>
+      <c r="J206" s="27"/>
+      <c r="K206" s="27"/>
+      <c r="L206" s="27"/>
+      <c r="M206" s="27"/>
+      <c r="N206" s="27"/>
+      <c r="O206" s="27"/>
+      <c r="P206" s="27"/>
+      <c r="Q206" s="27"/>
+      <c r="R206" s="27"/>
+      <c r="S206" s="27"/>
+      <c r="T206" s="27"/>
+      <c r="U206" s="27"/>
+      <c r="V206" s="27"/>
+      <c r="W206" s="27"/>
+      <c r="X206" s="27"/>
+      <c r="Y206" s="27"/>
+      <c r="Z206" s="27"/>
+      <c r="AA206" s="27"/>
+      <c r="AB206" s="27"/>
+      <c r="AC206" s="27"/>
+      <c r="AD206" s="27"/>
+      <c r="AE206" s="27"/>
+      <c r="AF206" s="27"/>
+      <c r="AG206" s="27"/>
+      <c r="AH206" s="27"/>
+      <c r="AI206" s="27"/>
+      <c r="AJ206" s="27"/>
+      <c r="AK206" s="27"/>
+      <c r="AL206" s="27"/>
+      <c r="AM206" s="27"/>
+      <c r="AN206" s="27"/>
+    </row>
+    <row r="207" spans="1:40">
+      <c r="A207" s="27"/>
+      <c r="B207" s="27"/>
+      <c r="C207" s="27"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="27"/>
+      <c r="G207" s="27"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="27"/>
+      <c r="J207" s="27"/>
+      <c r="K207" s="27"/>
+      <c r="L207" s="27"/>
+      <c r="M207" s="27"/>
+      <c r="N207" s="27"/>
+      <c r="O207" s="27"/>
+      <c r="P207" s="27"/>
+      <c r="Q207" s="27"/>
+      <c r="R207" s="27"/>
+      <c r="S207" s="27"/>
+      <c r="T207" s="27"/>
+      <c r="U207" s="27"/>
+      <c r="V207" s="27"/>
+      <c r="W207" s="27"/>
+      <c r="X207" s="27"/>
+      <c r="Y207" s="27"/>
+      <c r="Z207" s="27"/>
+      <c r="AA207" s="27"/>
+      <c r="AB207" s="27"/>
+      <c r="AC207" s="27"/>
+      <c r="AD207" s="27"/>
+      <c r="AE207" s="27"/>
+      <c r="AF207" s="27"/>
+      <c r="AG207" s="27"/>
+      <c r="AH207" s="27"/>
+      <c r="AI207" s="27"/>
+      <c r="AJ207" s="27"/>
+      <c r="AK207" s="27"/>
+      <c r="AL207" s="27"/>
+      <c r="AM207" s="27"/>
+      <c r="AN207" s="27"/>
+    </row>
+    <row r="208" spans="1:40">
+      <c r="A208" s="27"/>
+      <c r="B208" s="27"/>
+      <c r="C208" s="27"/>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
+      <c r="F208" s="27"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="27"/>
+      <c r="I208" s="27"/>
+      <c r="J208" s="27"/>
+      <c r="K208" s="27"/>
+      <c r="L208" s="27"/>
+      <c r="M208" s="27"/>
+      <c r="N208" s="27"/>
+      <c r="O208" s="27"/>
+      <c r="P208" s="27"/>
+      <c r="Q208" s="27"/>
+      <c r="R208" s="27"/>
+      <c r="S208" s="27"/>
+      <c r="T208" s="27"/>
+      <c r="U208" s="27"/>
+      <c r="V208" s="27"/>
+      <c r="W208" s="27"/>
+      <c r="X208" s="27"/>
+      <c r="Y208" s="27"/>
+      <c r="Z208" s="27"/>
+      <c r="AA208" s="27"/>
+      <c r="AB208" s="27"/>
+      <c r="AC208" s="27"/>
+      <c r="AD208" s="27"/>
+      <c r="AE208" s="27"/>
+      <c r="AF208" s="27"/>
+      <c r="AG208" s="27"/>
+      <c r="AH208" s="27"/>
+      <c r="AI208" s="27"/>
+      <c r="AJ208" s="27"/>
+      <c r="AK208" s="27"/>
+      <c r="AL208" s="27"/>
+      <c r="AM208" s="27"/>
+      <c r="AN208" s="27"/>
+    </row>
+    <row r="209" spans="1:40">
+      <c r="A209" s="27"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="27"/>
+      <c r="G209" s="27"/>
+      <c r="H209" s="27"/>
+      <c r="I209" s="27"/>
+      <c r="J209" s="27"/>
+      <c r="K209" s="27"/>
+      <c r="L209" s="27"/>
+      <c r="M209" s="27"/>
+      <c r="N209" s="27"/>
+      <c r="O209" s="27"/>
+      <c r="P209" s="27"/>
+      <c r="Q209" s="27"/>
+      <c r="R209" s="27"/>
+      <c r="S209" s="27"/>
+      <c r="T209" s="27"/>
+      <c r="U209" s="27"/>
+      <c r="V209" s="27"/>
+      <c r="W209" s="27"/>
+      <c r="X209" s="27"/>
+      <c r="Y209" s="27"/>
+      <c r="Z209" s="27"/>
+      <c r="AA209" s="27"/>
+      <c r="AB209" s="27"/>
+      <c r="AC209" s="27"/>
+      <c r="AD209" s="27"/>
+      <c r="AE209" s="27"/>
+      <c r="AF209" s="27"/>
+      <c r="AG209" s="27"/>
+      <c r="AH209" s="27"/>
+      <c r="AI209" s="27"/>
+      <c r="AJ209" s="27"/>
+      <c r="AK209" s="27"/>
+      <c r="AL209" s="27"/>
+      <c r="AM209" s="27"/>
+      <c r="AN209" s="27"/>
+    </row>
+    <row r="210" spans="1:40">
+      <c r="A210" s="27"/>
+      <c r="B210" s="27"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="27"/>
+      <c r="J210" s="27"/>
+      <c r="K210" s="27"/>
+      <c r="L210" s="27"/>
+      <c r="M210" s="27"/>
+      <c r="N210" s="27"/>
+      <c r="O210" s="27"/>
+      <c r="P210" s="27"/>
+      <c r="Q210" s="27"/>
+      <c r="R210" s="27"/>
+      <c r="S210" s="27"/>
+      <c r="T210" s="27"/>
+      <c r="U210" s="27"/>
+      <c r="V210" s="27"/>
+      <c r="W210" s="27"/>
+      <c r="X210" s="27"/>
+      <c r="Y210" s="27"/>
+      <c r="Z210" s="27"/>
+      <c r="AA210" s="27"/>
+      <c r="AB210" s="27"/>
+      <c r="AC210" s="27"/>
+      <c r="AD210" s="27"/>
+      <c r="AE210" s="27"/>
+      <c r="AF210" s="27"/>
+      <c r="AG210" s="27"/>
+      <c r="AH210" s="27"/>
+      <c r="AI210" s="27"/>
+      <c r="AJ210" s="27"/>
+      <c r="AK210" s="27"/>
+      <c r="AL210" s="27"/>
+      <c r="AM210" s="27"/>
+      <c r="AN210" s="27"/>
+    </row>
+    <row r="211" spans="1:40">
+      <c r="A211" s="27"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="27"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27"/>
+      <c r="I211" s="27"/>
+      <c r="J211" s="27"/>
+      <c r="K211" s="27"/>
+      <c r="L211" s="27"/>
+      <c r="M211" s="27"/>
+      <c r="N211" s="27"/>
+      <c r="O211" s="27"/>
+      <c r="P211" s="27"/>
+      <c r="Q211" s="27"/>
+      <c r="R211" s="27"/>
+      <c r="S211" s="27"/>
+      <c r="T211" s="27"/>
+      <c r="U211" s="27"/>
+      <c r="V211" s="27"/>
+      <c r="W211" s="27"/>
+      <c r="X211" s="27"/>
+      <c r="Y211" s="27"/>
+      <c r="Z211" s="27"/>
+      <c r="AA211" s="27"/>
+      <c r="AB211" s="27"/>
+      <c r="AC211" s="27"/>
+      <c r="AD211" s="27"/>
+      <c r="AE211" s="27"/>
+      <c r="AF211" s="27"/>
+      <c r="AG211" s="27"/>
+      <c r="AH211" s="27"/>
+      <c r="AI211" s="27"/>
+      <c r="AJ211" s="27"/>
+      <c r="AK211" s="27"/>
+      <c r="AL211" s="27"/>
+      <c r="AM211" s="27"/>
+      <c r="AN211" s="27"/>
+    </row>
+    <row r="212" spans="1:40">
+      <c r="A212" s="27"/>
+      <c r="B212" s="27"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="27"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="27"/>
+      <c r="I212" s="27"/>
+      <c r="J212" s="27"/>
+      <c r="K212" s="27"/>
+      <c r="L212" s="27"/>
+      <c r="M212" s="27"/>
+      <c r="N212" s="27"/>
+      <c r="O212" s="27"/>
+      <c r="P212" s="27"/>
+      <c r="Q212" s="27"/>
+      <c r="R212" s="27"/>
+      <c r="S212" s="27"/>
+      <c r="T212" s="27"/>
+      <c r="U212" s="27"/>
+      <c r="V212" s="27"/>
+      <c r="W212" s="27"/>
+      <c r="X212" s="27"/>
+      <c r="Y212" s="27"/>
+      <c r="Z212" s="27"/>
+      <c r="AA212" s="27"/>
+      <c r="AB212" s="27"/>
+      <c r="AC212" s="27"/>
+      <c r="AD212" s="27"/>
+      <c r="AE212" s="27"/>
+      <c r="AF212" s="27"/>
+      <c r="AG212" s="27"/>
+      <c r="AH212" s="27"/>
+      <c r="AI212" s="27"/>
+      <c r="AJ212" s="27"/>
+      <c r="AK212" s="27"/>
+      <c r="AL212" s="27"/>
+      <c r="AM212" s="27"/>
+      <c r="AN212" s="27"/>
+    </row>
+    <row r="213" spans="1:40">
+      <c r="A213" s="27"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="27"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="27"/>
+      <c r="K213" s="27"/>
+      <c r="L213" s="27"/>
+      <c r="M213" s="27"/>
+      <c r="N213" s="27"/>
+      <c r="O213" s="27"/>
+      <c r="P213" s="27"/>
+      <c r="Q213" s="27"/>
+      <c r="R213" s="27"/>
+      <c r="S213" s="27"/>
+      <c r="T213" s="27"/>
+      <c r="U213" s="27"/>
+      <c r="V213" s="27"/>
+      <c r="W213" s="27"/>
+      <c r="X213" s="27"/>
+      <c r="Y213" s="27"/>
+      <c r="Z213" s="27"/>
+      <c r="AA213" s="27"/>
+      <c r="AB213" s="27"/>
+      <c r="AC213" s="27"/>
+      <c r="AD213" s="27"/>
+      <c r="AE213" s="27"/>
+      <c r="AF213" s="27"/>
+      <c r="AG213" s="27"/>
+      <c r="AH213" s="27"/>
+      <c r="AI213" s="27"/>
+      <c r="AJ213" s="27"/>
+      <c r="AK213" s="27"/>
+      <c r="AL213" s="27"/>
+      <c r="AM213" s="27"/>
+      <c r="AN213" s="27"/>
+    </row>
+    <row r="214" spans="1:40">
+      <c r="A214" s="27"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="27"/>
+      <c r="J214" s="27"/>
+      <c r="K214" s="27"/>
+      <c r="L214" s="27"/>
+      <c r="M214" s="27"/>
+      <c r="N214" s="27"/>
+      <c r="O214" s="27"/>
+      <c r="P214" s="27"/>
+      <c r="Q214" s="27"/>
+      <c r="R214" s="27"/>
+      <c r="S214" s="27"/>
+      <c r="T214" s="27"/>
+      <c r="U214" s="27"/>
+      <c r="V214" s="27"/>
+      <c r="W214" s="27"/>
+      <c r="X214" s="27"/>
+      <c r="Y214" s="27"/>
+      <c r="Z214" s="27"/>
+      <c r="AA214" s="27"/>
+      <c r="AB214" s="27"/>
+      <c r="AC214" s="27"/>
+      <c r="AD214" s="27"/>
+      <c r="AE214" s="27"/>
+      <c r="AF214" s="27"/>
+      <c r="AG214" s="27"/>
+      <c r="AH214" s="27"/>
+      <c r="AI214" s="27"/>
+      <c r="AJ214" s="27"/>
+      <c r="AK214" s="27"/>
+      <c r="AL214" s="27"/>
+      <c r="AM214" s="27"/>
+      <c r="AN214" s="27"/>
+    </row>
+    <row r="215" spans="1:40">
+      <c r="A215" s="27"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="27"/>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="27"/>
+      <c r="G215" s="27"/>
+      <c r="H215" s="27"/>
+      <c r="I215" s="27"/>
+      <c r="J215" s="27"/>
+      <c r="K215" s="27"/>
+      <c r="L215" s="27"/>
+      <c r="M215" s="27"/>
+      <c r="N215" s="27"/>
+      <c r="O215" s="27"/>
+      <c r="P215" s="27"/>
+      <c r="Q215" s="27"/>
+      <c r="R215" s="27"/>
+      <c r="S215" s="27"/>
+      <c r="T215" s="27"/>
+      <c r="U215" s="27"/>
+      <c r="V215" s="27"/>
+      <c r="W215" s="27"/>
+      <c r="X215" s="27"/>
+      <c r="Y215" s="27"/>
+      <c r="Z215" s="27"/>
+      <c r="AA215" s="27"/>
+      <c r="AB215" s="27"/>
+      <c r="AC215" s="27"/>
+      <c r="AD215" s="27"/>
+      <c r="AE215" s="27"/>
+      <c r="AF215" s="27"/>
+      <c r="AG215" s="27"/>
+      <c r="AH215" s="27"/>
+      <c r="AI215" s="27"/>
+      <c r="AJ215" s="27"/>
+      <c r="AK215" s="27"/>
+      <c r="AL215" s="27"/>
+      <c r="AM215" s="27"/>
+      <c r="AN215" s="27"/>
+    </row>
+    <row r="216" spans="1:40">
+      <c r="A216" s="27"/>
+      <c r="B216" s="27"/>
+      <c r="C216" s="27"/>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27"/>
+      <c r="G216" s="27"/>
+      <c r="H216" s="27"/>
+      <c r="I216" s="27"/>
+      <c r="J216" s="27"/>
+      <c r="K216" s="27"/>
+      <c r="L216" s="27"/>
+      <c r="M216" s="27"/>
+      <c r="N216" s="27"/>
+      <c r="O216" s="27"/>
+      <c r="P216" s="27"/>
+      <c r="Q216" s="27"/>
+      <c r="R216" s="27"/>
+      <c r="S216" s="27"/>
+      <c r="T216" s="27"/>
+      <c r="U216" s="27"/>
+      <c r="V216" s="27"/>
+      <c r="W216" s="27"/>
+      <c r="X216" s="27"/>
+      <c r="Y216" s="27"/>
+      <c r="Z216" s="27"/>
+      <c r="AA216" s="27"/>
+      <c r="AB216" s="27"/>
+      <c r="AC216" s="27"/>
+      <c r="AD216" s="27"/>
+      <c r="AE216" s="27"/>
+      <c r="AF216" s="27"/>
+      <c r="AG216" s="27"/>
+      <c r="AH216" s="27"/>
+      <c r="AI216" s="27"/>
+      <c r="AJ216" s="27"/>
+      <c r="AK216" s="27"/>
+      <c r="AL216" s="27"/>
+      <c r="AM216" s="27"/>
+      <c r="AN216" s="27"/>
+    </row>
+    <row r="217" spans="1:40">
+      <c r="A217" s="27"/>
+      <c r="B217" s="27"/>
+      <c r="C217" s="27"/>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="27"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="27"/>
+      <c r="I217" s="27"/>
+      <c r="J217" s="27"/>
+      <c r="K217" s="27"/>
+      <c r="L217" s="27"/>
+      <c r="M217" s="27"/>
+      <c r="N217" s="27"/>
+      <c r="O217" s="27"/>
+      <c r="P217" s="27"/>
+      <c r="Q217" s="27"/>
+      <c r="R217" s="27"/>
+      <c r="S217" s="27"/>
+      <c r="T217" s="27"/>
+      <c r="U217" s="27"/>
+      <c r="V217" s="27"/>
+      <c r="W217" s="27"/>
+      <c r="X217" s="27"/>
+      <c r="Y217" s="27"/>
+      <c r="Z217" s="27"/>
+      <c r="AA217" s="27"/>
+      <c r="AB217" s="27"/>
+      <c r="AC217" s="27"/>
+      <c r="AD217" s="27"/>
+      <c r="AE217" s="27"/>
+      <c r="AF217" s="27"/>
+      <c r="AG217" s="27"/>
+      <c r="AH217" s="27"/>
+      <c r="AI217" s="27"/>
+      <c r="AJ217" s="27"/>
+      <c r="AK217" s="27"/>
+      <c r="AL217" s="27"/>
+      <c r="AM217" s="27"/>
+      <c r="AN217" s="27"/>
+    </row>
+    <row r="218" spans="1:40">
+      <c r="A218" s="27"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
+      <c r="F218" s="27"/>
+      <c r="G218" s="27"/>
+      <c r="H218" s="27"/>
+      <c r="I218" s="27"/>
+      <c r="J218" s="27"/>
+      <c r="K218" s="27"/>
+      <c r="L218" s="27"/>
+      <c r="M218" s="27"/>
+      <c r="N218" s="27"/>
+      <c r="O218" s="27"/>
+      <c r="P218" s="27"/>
+      <c r="Q218" s="27"/>
+      <c r="R218" s="27"/>
+      <c r="S218" s="27"/>
+      <c r="T218" s="27"/>
+      <c r="U218" s="27"/>
+      <c r="V218" s="27"/>
+      <c r="W218" s="27"/>
+      <c r="X218" s="27"/>
+      <c r="Y218" s="27"/>
+      <c r="Z218" s="27"/>
+      <c r="AA218" s="27"/>
+      <c r="AB218" s="27"/>
+      <c r="AC218" s="27"/>
+      <c r="AD218" s="27"/>
+      <c r="AE218" s="27"/>
+      <c r="AF218" s="27"/>
+      <c r="AG218" s="27"/>
+      <c r="AH218" s="27"/>
+      <c r="AI218" s="27"/>
+      <c r="AJ218" s="27"/>
+      <c r="AK218" s="27"/>
+      <c r="AL218" s="27"/>
+      <c r="AM218" s="27"/>
+      <c r="AN218" s="27"/>
+    </row>
+    <row r="219" spans="1:40">
+      <c r="A219" s="27"/>
+      <c r="B219" s="27"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="27"/>
+      <c r="E219" s="27"/>
+      <c r="F219" s="27"/>
+      <c r="G219" s="27"/>
+      <c r="H219" s="27"/>
+      <c r="I219" s="27"/>
+      <c r="J219" s="27"/>
+      <c r="K219" s="27"/>
+      <c r="L219" s="27"/>
+      <c r="M219" s="27"/>
+      <c r="N219" s="27"/>
+      <c r="O219" s="27"/>
+      <c r="P219" s="27"/>
+      <c r="Q219" s="27"/>
+      <c r="R219" s="27"/>
+      <c r="S219" s="27"/>
+      <c r="T219" s="27"/>
+      <c r="U219" s="27"/>
+      <c r="V219" s="27"/>
+      <c r="W219" s="27"/>
+      <c r="X219" s="27"/>
+      <c r="Y219" s="27"/>
+      <c r="Z219" s="27"/>
+      <c r="AA219" s="27"/>
+      <c r="AB219" s="27"/>
+      <c r="AC219" s="27"/>
+      <c r="AD219" s="27"/>
+      <c r="AE219" s="27"/>
+      <c r="AF219" s="27"/>
+      <c r="AG219" s="27"/>
+      <c r="AH219" s="27"/>
+      <c r="AI219" s="27"/>
+      <c r="AJ219" s="27"/>
+      <c r="AK219" s="27"/>
+      <c r="AL219" s="27"/>
+      <c r="AM219" s="27"/>
+      <c r="AN219" s="27"/>
+    </row>
+    <row r="220" spans="1:40">
+      <c r="A220" s="27"/>
+      <c r="B220" s="27"/>
+      <c r="C220" s="27"/>
+      <c r="D220" s="27"/>
+      <c r="E220" s="27"/>
+      <c r="F220" s="27"/>
+      <c r="G220" s="27"/>
+      <c r="H220" s="27"/>
+      <c r="I220" s="27"/>
+      <c r="J220" s="27"/>
+      <c r="K220" s="27"/>
+      <c r="L220" s="27"/>
+      <c r="M220" s="27"/>
+      <c r="N220" s="27"/>
+      <c r="O220" s="27"/>
+      <c r="P220" s="27"/>
+      <c r="Q220" s="27"/>
+      <c r="R220" s="27"/>
+      <c r="S220" s="27"/>
+      <c r="T220" s="27"/>
+      <c r="U220" s="27"/>
+      <c r="V220" s="27"/>
+      <c r="W220" s="27"/>
+      <c r="X220" s="27"/>
+      <c r="Y220" s="27"/>
+      <c r="Z220" s="27"/>
+      <c r="AA220" s="27"/>
+      <c r="AB220" s="27"/>
+      <c r="AC220" s="27"/>
+      <c r="AD220" s="27"/>
+      <c r="AE220" s="27"/>
+      <c r="AF220" s="27"/>
+      <c r="AG220" s="27"/>
+      <c r="AH220" s="27"/>
+      <c r="AI220" s="27"/>
+      <c r="AJ220" s="27"/>
+      <c r="AK220" s="27"/>
+      <c r="AL220" s="27"/>
+      <c r="AM220" s="27"/>
+      <c r="AN220" s="27"/>
+    </row>
+    <row r="221" spans="1:40">
+      <c r="A221" s="27"/>
+      <c r="B221" s="27"/>
+      <c r="C221" s="27"/>
+      <c r="D221" s="27"/>
+      <c r="E221" s="27"/>
+      <c r="F221" s="27"/>
+      <c r="G221" s="27"/>
+      <c r="H221" s="27"/>
+      <c r="I221" s="27"/>
+      <c r="J221" s="27"/>
+      <c r="K221" s="27"/>
+      <c r="L221" s="27"/>
+      <c r="M221" s="27"/>
+      <c r="N221" s="27"/>
+      <c r="O221" s="27"/>
+      <c r="P221" s="27"/>
+      <c r="Q221" s="27"/>
+      <c r="R221" s="27"/>
+      <c r="S221" s="27"/>
+      <c r="T221" s="27"/>
+      <c r="U221" s="27"/>
+      <c r="V221" s="27"/>
+      <c r="W221" s="27"/>
+      <c r="X221" s="27"/>
+      <c r="Y221" s="27"/>
+      <c r="Z221" s="27"/>
+      <c r="AA221" s="27"/>
+      <c r="AB221" s="27"/>
+      <c r="AC221" s="27"/>
+      <c r="AD221" s="27"/>
+      <c r="AE221" s="27"/>
+      <c r="AF221" s="27"/>
+      <c r="AG221" s="27"/>
+      <c r="AH221" s="27"/>
+      <c r="AI221" s="27"/>
+      <c r="AJ221" s="27"/>
+      <c r="AK221" s="27"/>
+      <c r="AL221" s="27"/>
+      <c r="AM221" s="27"/>
+      <c r="AN221" s="27"/>
+    </row>
+    <row r="222" spans="1:40">
+      <c r="A222" s="27"/>
+      <c r="B222" s="27"/>
+      <c r="C222" s="27"/>
+      <c r="D222" s="27"/>
+      <c r="E222" s="27"/>
+      <c r="F222" s="27"/>
+      <c r="G222" s="27"/>
+      <c r="H222" s="27"/>
+      <c r="I222" s="27"/>
+      <c r="J222" s="27"/>
+      <c r="K222" s="27"/>
+      <c r="L222" s="27"/>
+      <c r="M222" s="27"/>
+      <c r="N222" s="27"/>
+      <c r="O222" s="27"/>
+      <c r="P222" s="27"/>
+      <c r="Q222" s="27"/>
+      <c r="R222" s="27"/>
+      <c r="S222" s="27"/>
+      <c r="T222" s="27"/>
+      <c r="U222" s="27"/>
+      <c r="V222" s="27"/>
+      <c r="W222" s="27"/>
+      <c r="X222" s="27"/>
+      <c r="Y222" s="27"/>
+      <c r="Z222" s="27"/>
+      <c r="AA222" s="27"/>
+      <c r="AB222" s="27"/>
+      <c r="AC222" s="27"/>
+      <c r="AD222" s="27"/>
+      <c r="AE222" s="27"/>
+      <c r="AF222" s="27"/>
+      <c r="AG222" s="27"/>
+      <c r="AH222" s="27"/>
+      <c r="AI222" s="27"/>
+      <c r="AJ222" s="27"/>
+      <c r="AK222" s="27"/>
+      <c r="AL222" s="27"/>
+      <c r="AM222" s="27"/>
+      <c r="AN222" s="27"/>
+    </row>
+    <row r="223" spans="1:40">
+      <c r="A223" s="27"/>
+      <c r="B223" s="27"/>
+      <c r="C223" s="27"/>
+      <c r="D223" s="27"/>
+      <c r="E223" s="27"/>
+      <c r="F223" s="27"/>
+      <c r="G223" s="27"/>
+      <c r="H223" s="27"/>
+      <c r="I223" s="27"/>
+      <c r="J223" s="27"/>
+      <c r="K223" s="27"/>
+      <c r="L223" s="27"/>
+      <c r="M223" s="27"/>
+      <c r="N223" s="27"/>
+      <c r="O223" s="27"/>
+      <c r="P223" s="27"/>
+      <c r="Q223" s="27"/>
+      <c r="R223" s="27"/>
+      <c r="S223" s="27"/>
+      <c r="T223" s="27"/>
+      <c r="U223" s="27"/>
+      <c r="V223" s="27"/>
+      <c r="W223" s="27"/>
+      <c r="X223" s="27"/>
+      <c r="Y223" s="27"/>
+      <c r="Z223" s="27"/>
+      <c r="AA223" s="27"/>
+      <c r="AB223" s="27"/>
+      <c r="AC223" s="27"/>
+      <c r="AD223" s="27"/>
+      <c r="AE223" s="27"/>
+      <c r="AF223" s="27"/>
+      <c r="AG223" s="27"/>
+      <c r="AH223" s="27"/>
+      <c r="AI223" s="27"/>
+      <c r="AJ223" s="27"/>
+      <c r="AK223" s="27"/>
+      <c r="AL223" s="27"/>
+      <c r="AM223" s="27"/>
+      <c r="AN223" s="27"/>
+    </row>
+    <row r="224" spans="1:40">
+      <c r="A224" s="27"/>
+      <c r="B224" s="27"/>
+      <c r="C224" s="27"/>
+      <c r="D224" s="27"/>
+      <c r="E224" s="27"/>
+      <c r="F224" s="27"/>
+      <c r="G224" s="27"/>
+      <c r="H224" s="27"/>
+      <c r="I224" s="27"/>
+      <c r="J224" s="27"/>
+      <c r="K224" s="27"/>
+      <c r="L224" s="27"/>
+      <c r="M224" s="27"/>
+      <c r="N224" s="27"/>
+      <c r="O224" s="27"/>
+      <c r="P224" s="27"/>
+      <c r="Q224" s="27"/>
+      <c r="R224" s="27"/>
+      <c r="S224" s="27"/>
+      <c r="T224" s="27"/>
+      <c r="U224" s="27"/>
+      <c r="V224" s="27"/>
+      <c r="W224" s="27"/>
+      <c r="X224" s="27"/>
+      <c r="Y224" s="27"/>
+      <c r="Z224" s="27"/>
+      <c r="AA224" s="27"/>
+      <c r="AB224" s="27"/>
+      <c r="AC224" s="27"/>
+      <c r="AD224" s="27"/>
+      <c r="AE224" s="27"/>
+      <c r="AF224" s="27"/>
+      <c r="AG224" s="27"/>
+      <c r="AH224" s="27"/>
+      <c r="AI224" s="27"/>
+      <c r="AJ224" s="27"/>
+      <c r="AK224" s="27"/>
+      <c r="AL224" s="27"/>
+      <c r="AM224" s="27"/>
+      <c r="AN224" s="27"/>
+    </row>
+    <row r="225" spans="1:40">
+      <c r="A225" s="27"/>
+      <c r="B225" s="27"/>
+      <c r="C225" s="27"/>
+      <c r="D225" s="27"/>
+      <c r="E225" s="27"/>
+      <c r="F225" s="27"/>
+      <c r="G225" s="27"/>
+      <c r="H225" s="27"/>
+      <c r="I225" s="27"/>
+      <c r="J225" s="27"/>
+      <c r="K225" s="27"/>
+      <c r="L225" s="27"/>
+      <c r="M225" s="27"/>
+      <c r="N225" s="27"/>
+      <c r="O225" s="27"/>
+      <c r="P225" s="27"/>
+      <c r="Q225" s="27"/>
+      <c r="R225" s="27"/>
+      <c r="S225" s="27"/>
+      <c r="T225" s="27"/>
+      <c r="U225" s="27"/>
+      <c r="V225" s="27"/>
+      <c r="W225" s="27"/>
+      <c r="X225" s="27"/>
+      <c r="Y225" s="27"/>
+      <c r="Z225" s="27"/>
+      <c r="AA225" s="27"/>
+      <c r="AB225" s="27"/>
+      <c r="AC225" s="27"/>
+      <c r="AD225" s="27"/>
+      <c r="AE225" s="27"/>
+      <c r="AF225" s="27"/>
+      <c r="AG225" s="27"/>
+      <c r="AH225" s="27"/>
+      <c r="AI225" s="27"/>
+      <c r="AJ225" s="27"/>
+      <c r="AK225" s="27"/>
+      <c r="AL225" s="27"/>
+      <c r="AM225" s="27"/>
+      <c r="AN225" s="27"/>
+    </row>
+    <row r="226" spans="1:40">
+      <c r="A226" s="27"/>
+      <c r="B226" s="27"/>
+      <c r="C226" s="27"/>
+      <c r="D226" s="27"/>
+      <c r="E226" s="27"/>
+      <c r="F226" s="27"/>
+      <c r="G226" s="27"/>
+      <c r="H226" s="27"/>
+      <c r="I226" s="27"/>
+      <c r="J226" s="27"/>
+      <c r="K226" s="27"/>
+      <c r="L226" s="27"/>
+      <c r="M226" s="27"/>
+      <c r="N226" s="27"/>
+      <c r="O226" s="27"/>
+      <c r="P226" s="27"/>
+      <c r="Q226" s="27"/>
+      <c r="R226" s="27"/>
+      <c r="S226" s="27"/>
+      <c r="T226" s="27"/>
+      <c r="U226" s="27"/>
+      <c r="V226" s="27"/>
+      <c r="W226" s="27"/>
+      <c r="X226" s="27"/>
+      <c r="Y226" s="27"/>
+      <c r="Z226" s="27"/>
+      <c r="AA226" s="27"/>
+      <c r="AB226" s="27"/>
+      <c r="AC226" s="27"/>
+      <c r="AD226" s="27"/>
+      <c r="AE226" s="27"/>
+      <c r="AF226" s="27"/>
+      <c r="AG226" s="27"/>
+      <c r="AH226" s="27"/>
+      <c r="AI226" s="27"/>
+      <c r="AJ226" s="27"/>
+      <c r="AK226" s="27"/>
+      <c r="AL226" s="27"/>
+      <c r="AM226" s="27"/>
+      <c r="AN226" s="27"/>
+    </row>
+    <row r="227" spans="1:40">
+      <c r="A227" s="27"/>
+      <c r="B227" s="27"/>
+      <c r="C227" s="27"/>
+      <c r="D227" s="27"/>
+      <c r="E227" s="27"/>
+      <c r="F227" s="27"/>
+      <c r="G227" s="27"/>
+      <c r="H227" s="27"/>
+      <c r="I227" s="27"/>
+      <c r="J227" s="27"/>
+      <c r="K227" s="27"/>
+      <c r="L227" s="27"/>
+      <c r="M227" s="27"/>
+      <c r="N227" s="27"/>
+      <c r="O227" s="27"/>
+      <c r="P227" s="27"/>
+      <c r="Q227" s="27"/>
+      <c r="R227" s="27"/>
+      <c r="S227" s="27"/>
+      <c r="T227" s="27"/>
+      <c r="U227" s="27"/>
+      <c r="V227" s="27"/>
+      <c r="W227" s="27"/>
+      <c r="X227" s="27"/>
+      <c r="Y227" s="27"/>
+      <c r="Z227" s="27"/>
+      <c r="AA227" s="27"/>
+      <c r="AB227" s="27"/>
+      <c r="AC227" s="27"/>
+      <c r="AD227" s="27"/>
+      <c r="AE227" s="27"/>
+      <c r="AF227" s="27"/>
+      <c r="AG227" s="27"/>
+      <c r="AH227" s="27"/>
+      <c r="AI227" s="27"/>
+      <c r="AJ227" s="27"/>
+      <c r="AK227" s="27"/>
+      <c r="AL227" s="27"/>
+      <c r="AM227" s="27"/>
+      <c r="AN227" s="27"/>
+    </row>
+    <row r="228" spans="1:40">
+      <c r="A228" s="27"/>
+      <c r="B228" s="27"/>
+      <c r="C228" s="27"/>
+      <c r="D228" s="27"/>
+      <c r="E228" s="27"/>
+      <c r="F228" s="27"/>
+      <c r="G228" s="27"/>
+      <c r="H228" s="27"/>
+      <c r="I228" s="27"/>
+      <c r="J228" s="27"/>
+      <c r="K228" s="27"/>
+      <c r="L228" s="27"/>
+      <c r="M228" s="27"/>
+      <c r="N228" s="27"/>
+      <c r="O228" s="27"/>
+      <c r="P228" s="27"/>
+      <c r="Q228" s="27"/>
+      <c r="R228" s="27"/>
+      <c r="S228" s="27"/>
+      <c r="T228" s="27"/>
+      <c r="U228" s="27"/>
+      <c r="V228" s="27"/>
+      <c r="W228" s="27"/>
+      <c r="X228" s="27"/>
+      <c r="Y228" s="27"/>
+      <c r="Z228" s="27"/>
+      <c r="AA228" s="27"/>
+      <c r="AB228" s="27"/>
+      <c r="AC228" s="27"/>
+      <c r="AD228" s="27"/>
+      <c r="AE228" s="27"/>
+      <c r="AF228" s="27"/>
+      <c r="AG228" s="27"/>
+      <c r="AH228" s="27"/>
+      <c r="AI228" s="27"/>
+      <c r="AJ228" s="27"/>
+      <c r="AK228" s="27"/>
+      <c r="AL228" s="27"/>
+      <c r="AM228" s="27"/>
+      <c r="AN228" s="27"/>
+    </row>
+    <row r="229" spans="1:40">
+      <c r="A229" s="27"/>
+      <c r="B229" s="27"/>
+      <c r="C229" s="27"/>
+      <c r="D229" s="27"/>
+      <c r="E229" s="27"/>
+      <c r="F229" s="27"/>
+      <c r="G229" s="27"/>
+      <c r="H229" s="27"/>
+      <c r="I229" s="27"/>
+      <c r="J229" s="27"/>
+      <c r="K229" s="27"/>
+      <c r="L229" s="27"/>
+      <c r="M229" s="27"/>
+      <c r="N229" s="27"/>
+      <c r="O229" s="27"/>
+      <c r="P229" s="27"/>
+      <c r="Q229" s="27"/>
+      <c r="R229" s="27"/>
+      <c r="S229" s="27"/>
+      <c r="T229" s="27"/>
+      <c r="U229" s="27"/>
+      <c r="V229" s="27"/>
+      <c r="W229" s="27"/>
+      <c r="X229" s="27"/>
+      <c r="Y229" s="27"/>
+      <c r="Z229" s="27"/>
+      <c r="AA229" s="27"/>
+      <c r="AB229" s="27"/>
+      <c r="AC229" s="27"/>
+      <c r="AD229" s="27"/>
+      <c r="AE229" s="27"/>
+      <c r="AF229" s="27"/>
+      <c r="AG229" s="27"/>
+      <c r="AH229" s="27"/>
+      <c r="AI229" s="27"/>
+      <c r="AJ229" s="27"/>
+      <c r="AK229" s="27"/>
+      <c r="AL229" s="27"/>
+      <c r="AM229" s="27"/>
+      <c r="AN229" s="27"/>
+    </row>
+    <row r="230" spans="1:40">
+      <c r="A230" s="27"/>
+      <c r="B230" s="27"/>
+      <c r="C230" s="27"/>
+      <c r="D230" s="27"/>
+      <c r="E230" s="27"/>
+      <c r="F230" s="27"/>
+      <c r="G230" s="27"/>
+      <c r="H230" s="27"/>
+      <c r="I230" s="27"/>
+      <c r="J230" s="27"/>
+      <c r="K230" s="27"/>
+      <c r="L230" s="27"/>
+      <c r="M230" s="27"/>
+      <c r="N230" s="27"/>
+      <c r="O230" s="27"/>
+      <c r="P230" s="27"/>
+      <c r="Q230" s="27"/>
+      <c r="R230" s="27"/>
+      <c r="S230" s="27"/>
+      <c r="T230" s="27"/>
+      <c r="U230" s="27"/>
+      <c r="V230" s="27"/>
+      <c r="W230" s="27"/>
+      <c r="X230" s="27"/>
+      <c r="Y230" s="27"/>
+      <c r="Z230" s="27"/>
+      <c r="AA230" s="27"/>
+      <c r="AB230" s="27"/>
+      <c r="AC230" s="27"/>
+      <c r="AD230" s="27"/>
+      <c r="AE230" s="27"/>
+      <c r="AF230" s="27"/>
+      <c r="AG230" s="27"/>
+      <c r="AH230" s="27"/>
+      <c r="AI230" s="27"/>
+      <c r="AJ230" s="27"/>
+      <c r="AK230" s="27"/>
+      <c r="AL230" s="27"/>
+      <c r="AM230" s="27"/>
+      <c r="AN230" s="27"/>
+    </row>
+    <row r="231" spans="1:40">
+      <c r="A231" s="27"/>
+      <c r="B231" s="27"/>
+      <c r="C231" s="27"/>
+      <c r="D231" s="27"/>
+      <c r="E231" s="27"/>
+      <c r="F231" s="27"/>
+      <c r="G231" s="27"/>
+      <c r="H231" s="27"/>
+      <c r="I231" s="27"/>
+      <c r="J231" s="27"/>
+      <c r="K231" s="27"/>
+      <c r="L231" s="27"/>
+      <c r="M231" s="27"/>
+      <c r="N231" s="27"/>
+      <c r="O231" s="27"/>
+      <c r="P231" s="27"/>
+      <c r="Q231" s="27"/>
+      <c r="R231" s="27"/>
+      <c r="S231" s="27"/>
+      <c r="T231" s="27"/>
+      <c r="U231" s="27"/>
+      <c r="V231" s="27"/>
+      <c r="W231" s="27"/>
+      <c r="X231" s="27"/>
+      <c r="Y231" s="27"/>
+      <c r="Z231" s="27"/>
+      <c r="AA231" s="27"/>
+      <c r="AB231" s="27"/>
+      <c r="AC231" s="27"/>
+      <c r="AD231" s="27"/>
+      <c r="AE231" s="27"/>
+      <c r="AF231" s="27"/>
+      <c r="AG231" s="27"/>
+      <c r="AH231" s="27"/>
+      <c r="AI231" s="27"/>
+      <c r="AJ231" s="27"/>
+      <c r="AK231" s="27"/>
+      <c r="AL231" s="27"/>
+      <c r="AM231" s="27"/>
+      <c r="AN231" s="27"/>
+    </row>
+    <row r="232" spans="1:40">
+      <c r="A232" s="27"/>
+      <c r="B232" s="27"/>
+      <c r="C232" s="27"/>
+      <c r="D232" s="27"/>
+      <c r="E232" s="27"/>
+      <c r="F232" s="27"/>
+      <c r="G232" s="27"/>
+      <c r="H232" s="27"/>
+      <c r="I232" s="27"/>
+      <c r="J232" s="27"/>
+      <c r="K232" s="27"/>
+      <c r="L232" s="27"/>
+      <c r="M232" s="27"/>
+      <c r="N232" s="27"/>
+      <c r="O232" s="27"/>
+      <c r="P232" s="27"/>
+      <c r="Q232" s="27"/>
+      <c r="R232" s="27"/>
+      <c r="S232" s="27"/>
+      <c r="T232" s="27"/>
+      <c r="U232" s="27"/>
+      <c r="V232" s="27"/>
+      <c r="W232" s="27"/>
+      <c r="X232" s="27"/>
+      <c r="Y232" s="27"/>
+      <c r="Z232" s="27"/>
+      <c r="AA232" s="27"/>
+      <c r="AB232" s="27"/>
+      <c r="AC232" s="27"/>
+      <c r="AD232" s="27"/>
+      <c r="AE232" s="27"/>
+      <c r="AF232" s="27"/>
+      <c r="AG232" s="27"/>
+      <c r="AH232" s="27"/>
+      <c r="AI232" s="27"/>
+      <c r="AJ232" s="27"/>
+      <c r="AK232" s="27"/>
+      <c r="AL232" s="27"/>
+      <c r="AM232" s="27"/>
+      <c r="AN232" s="27"/>
+    </row>
+    <row r="233" spans="1:40">
+      <c r="A233" s="27"/>
+      <c r="B233" s="27"/>
+      <c r="C233" s="27"/>
+      <c r="D233" s="27"/>
+      <c r="E233" s="27"/>
+      <c r="F233" s="27"/>
+      <c r="G233" s="27"/>
+      <c r="H233" s="27"/>
+      <c r="I233" s="27"/>
+      <c r="J233" s="27"/>
+      <c r="K233" s="27"/>
+      <c r="L233" s="27"/>
+      <c r="M233" s="27"/>
+      <c r="N233" s="27"/>
+      <c r="O233" s="27"/>
+      <c r="P233" s="27"/>
+      <c r="Q233" s="27"/>
+      <c r="R233" s="27"/>
+      <c r="S233" s="27"/>
+      <c r="T233" s="27"/>
+      <c r="U233" s="27"/>
+      <c r="V233" s="27"/>
+      <c r="W233" s="27"/>
+      <c r="X233" s="27"/>
+      <c r="Y233" s="27"/>
+      <c r="Z233" s="27"/>
+      <c r="AA233" s="27"/>
+      <c r="AB233" s="27"/>
+      <c r="AC233" s="27"/>
+      <c r="AD233" s="27"/>
+      <c r="AE233" s="27"/>
+      <c r="AF233" s="27"/>
+      <c r="AG233" s="27"/>
+      <c r="AH233" s="27"/>
+      <c r="AI233" s="27"/>
+      <c r="AJ233" s="27"/>
+      <c r="AK233" s="27"/>
+      <c r="AL233" s="27"/>
+      <c r="AM233" s="27"/>
+      <c r="AN233" s="27"/>
+    </row>
+    <row r="234" spans="1:40">
+      <c r="A234" s="27"/>
+      <c r="B234" s="27"/>
+      <c r="C234" s="27"/>
+      <c r="D234" s="27"/>
+      <c r="E234" s="27"/>
+      <c r="F234" s="27"/>
+      <c r="G234" s="27"/>
+      <c r="H234" s="27"/>
+      <c r="I234" s="27"/>
+      <c r="J234" s="27"/>
+      <c r="K234" s="27"/>
+      <c r="L234" s="27"/>
+      <c r="M234" s="27"/>
+      <c r="N234" s="27"/>
+      <c r="O234" s="27"/>
+      <c r="P234" s="27"/>
+      <c r="Q234" s="27"/>
+      <c r="R234" s="27"/>
+      <c r="S234" s="27"/>
+      <c r="T234" s="27"/>
+      <c r="U234" s="27"/>
+      <c r="V234" s="27"/>
+      <c r="W234" s="27"/>
+      <c r="X234" s="27"/>
+      <c r="Y234" s="27"/>
+      <c r="Z234" s="27"/>
+      <c r="AA234" s="27"/>
+      <c r="AB234" s="27"/>
+      <c r="AC234" s="27"/>
+      <c r="AD234" s="27"/>
+      <c r="AE234" s="27"/>
+      <c r="AF234" s="27"/>
+      <c r="AG234" s="27"/>
+      <c r="AH234" s="27"/>
+      <c r="AI234" s="27"/>
+      <c r="AJ234" s="27"/>
+      <c r="AK234" s="27"/>
+      <c r="AL234" s="27"/>
+      <c r="AM234" s="27"/>
+      <c r="AN234" s="27"/>
+    </row>
+    <row r="235" spans="1:40">
+      <c r="A235" s="27"/>
+      <c r="B235" s="27"/>
+      <c r="C235" s="27"/>
+      <c r="D235" s="27"/>
+      <c r="E235" s="27"/>
+      <c r="F235" s="27"/>
+      <c r="G235" s="27"/>
+      <c r="H235" s="27"/>
+      <c r="I235" s="27"/>
+      <c r="J235" s="27"/>
+      <c r="K235" s="27"/>
+      <c r="L235" s="27"/>
+      <c r="M235" s="27"/>
+      <c r="N235" s="27"/>
+      <c r="O235" s="27"/>
+      <c r="P235" s="27"/>
+      <c r="Q235" s="27"/>
+      <c r="R235" s="27"/>
+      <c r="S235" s="27"/>
+      <c r="T235" s="27"/>
+      <c r="U235" s="27"/>
+      <c r="V235" s="27"/>
+      <c r="W235" s="27"/>
+      <c r="X235" s="27"/>
+      <c r="Y235" s="27"/>
+      <c r="Z235" s="27"/>
+      <c r="AA235" s="27"/>
+      <c r="AB235" s="27"/>
+      <c r="AC235" s="27"/>
+      <c r="AD235" s="27"/>
+      <c r="AE235" s="27"/>
+      <c r="AF235" s="27"/>
+      <c r="AG235" s="27"/>
+      <c r="AH235" s="27"/>
+      <c r="AI235" s="27"/>
+      <c r="AJ235" s="27"/>
+      <c r="AK235" s="27"/>
+      <c r="AL235" s="27"/>
+      <c r="AM235" s="27"/>
+      <c r="AN235" s="27"/>
+    </row>
+    <row r="236" spans="1:40">
+      <c r="A236" s="27"/>
+      <c r="B236" s="27"/>
+      <c r="C236" s="27"/>
+      <c r="D236" s="27"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="27"/>
+      <c r="G236" s="27"/>
+      <c r="H236" s="27"/>
+      <c r="I236" s="27"/>
+      <c r="J236" s="27"/>
+      <c r="K236" s="27"/>
+      <c r="L236" s="27"/>
+      <c r="M236" s="27"/>
+      <c r="N236" s="27"/>
+      <c r="O236" s="27"/>
+      <c r="P236" s="27"/>
+      <c r="Q236" s="27"/>
+      <c r="R236" s="27"/>
+      <c r="S236" s="27"/>
+      <c r="T236" s="27"/>
+      <c r="U236" s="27"/>
+      <c r="V236" s="27"/>
+      <c r="W236" s="27"/>
+      <c r="X236" s="27"/>
+      <c r="Y236" s="27"/>
+      <c r="Z236" s="27"/>
+      <c r="AA236" s="27"/>
+      <c r="AB236" s="27"/>
+      <c r="AC236" s="27"/>
+      <c r="AD236" s="27"/>
+      <c r="AE236" s="27"/>
+      <c r="AF236" s="27"/>
+      <c r="AG236" s="27"/>
+      <c r="AH236" s="27"/>
+      <c r="AI236" s="27"/>
+      <c r="AJ236" s="27"/>
+      <c r="AK236" s="27"/>
+      <c r="AL236" s="27"/>
+      <c r="AM236" s="27"/>
+      <c r="AN236" s="27"/>
+    </row>
+    <row r="237" spans="1:40">
+      <c r="A237" s="27"/>
+      <c r="B237" s="27"/>
+      <c r="C237" s="27"/>
+      <c r="D237" s="27"/>
+      <c r="E237" s="27"/>
+      <c r="F237" s="27"/>
+      <c r="G237" s="27"/>
+      <c r="H237" s="27"/>
+      <c r="I237" s="27"/>
+      <c r="J237" s="27"/>
+      <c r="K237" s="27"/>
+      <c r="L237" s="27"/>
+      <c r="M237" s="27"/>
+      <c r="N237" s="27"/>
+      <c r="O237" s="27"/>
+      <c r="P237" s="27"/>
+      <c r="Q237" s="27"/>
+      <c r="R237" s="27"/>
+      <c r="S237" s="27"/>
+      <c r="T237" s="27"/>
+      <c r="U237" s="27"/>
+      <c r="V237" s="27"/>
+      <c r="W237" s="27"/>
+      <c r="X237" s="27"/>
+      <c r="Y237" s="27"/>
+      <c r="Z237" s="27"/>
+      <c r="AA237" s="27"/>
+      <c r="AB237" s="27"/>
+      <c r="AC237" s="27"/>
+      <c r="AD237" s="27"/>
+      <c r="AE237" s="27"/>
+      <c r="AF237" s="27"/>
+      <c r="AG237" s="27"/>
+      <c r="AH237" s="27"/>
+      <c r="AI237" s="27"/>
+      <c r="AJ237" s="27"/>
+      <c r="AK237" s="27"/>
+      <c r="AL237" s="27"/>
+      <c r="AM237" s="27"/>
+      <c r="AN237" s="27"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>